--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2011.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2011.xlsx
@@ -3,340 +3,343 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t>0192
+    <t xml:space="preserve">0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t>0280
+    <t xml:space="preserve">0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t>0580
+    <t xml:space="preserve">0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t>0680
+    <t xml:space="preserve">0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t>0791
+    <t xml:space="preserve">0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t>0792
+    <t xml:space="preserve">0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t>1091
+    <t xml:space="preserve">1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t>1092
+    <t xml:space="preserve">1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t>1093
+    <t xml:space="preserve">1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t>1100
+    <t xml:space="preserve">1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t>1200
+    <t xml:space="preserve">1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t>1300
+    <t xml:space="preserve">1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t>1400
+    <t xml:space="preserve">1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t>1500
+    <t xml:space="preserve">1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t>1600
+    <t xml:space="preserve">1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t>1700
+    <t xml:space="preserve">1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t>1800
+    <t xml:space="preserve">1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t>1991
+    <t xml:space="preserve">1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t>1992
+    <t xml:space="preserve">1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t>2091
+    <t xml:space="preserve">2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t>2092
+    <t xml:space="preserve">2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t>2093
+    <t xml:space="preserve">2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t>2100
+    <t xml:space="preserve">2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t>2200
+    <t xml:space="preserve">2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t>2300
+    <t xml:space="preserve">2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t>2491
+    <t xml:space="preserve">2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t>2492
+    <t xml:space="preserve">2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t>2500
+    <t xml:space="preserve">2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t>2600
+    <t xml:space="preserve">2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t>2700
+    <t xml:space="preserve">2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t>2800
+    <t xml:space="preserve">2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t>2991
+    <t xml:space="preserve">2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t>2992
+    <t xml:space="preserve">2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t>3000
+    <t xml:space="preserve">3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t>3180
+    <t xml:space="preserve">3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t>3300
+    <t xml:space="preserve">3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t>3500
+    <t xml:space="preserve">3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t>3680
+    <t xml:space="preserve">3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t>4180
+    <t xml:space="preserve">4180
 Construção</t>
   </si>
   <si>
-    <t>4500
+    <t xml:space="preserve">4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t>4680
+    <t xml:space="preserve">4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t>4900
+    <t xml:space="preserve">4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t>5000
+    <t xml:space="preserve">5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t>5100
+    <t xml:space="preserve">5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t>5280
+    <t xml:space="preserve">5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t>5500
+    <t xml:space="preserve">5500
 Alojamento</t>
   </si>
   <si>
-    <t>5600
+    <t xml:space="preserve">5600
 Alimentação</t>
   </si>
   <si>
-    <t>5800
+    <t xml:space="preserve">5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t>5980
+    <t xml:space="preserve">5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t>6100
+    <t xml:space="preserve">6100
 Telecomunicações</t>
   </si>
   <si>
-    <t>6280
+    <t xml:space="preserve">6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t>6480
+    <t xml:space="preserve">6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t>6800
+    <t xml:space="preserve">6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t>6980
+    <t xml:space="preserve">6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t>7180
+    <t xml:space="preserve">7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t>7380
+    <t xml:space="preserve">7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t>7700
+    <t xml:space="preserve">7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t>7880
+    <t xml:space="preserve">7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t>8000
+    <t xml:space="preserve">8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t>8400
+    <t xml:space="preserve">8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t>8591
+    <t xml:space="preserve">8591
 Educação pública</t>
   </si>
   <si>
-    <t>8592
+    <t xml:space="preserve">8592
 Educação privada</t>
   </si>
   <si>
-    <t>8691
+    <t xml:space="preserve">8691
 Saúde pública</t>
   </si>
   <si>
-    <t>8692
+    <t xml:space="preserve">8692
 Saúde privada</t>
   </si>
   <si>
-    <t>9080
+    <t xml:space="preserve">9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t>9480
+    <t xml:space="preserve">9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t>9700
+    <t xml:space="preserve">9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remunerações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor da produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +350,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -365,3151 +368,3435 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>124400.0</v>
+        <v>124400</v>
       </c>
       <c r="C2" t="n">
-        <v>48345.0</v>
+        <v>48345</v>
       </c>
       <c r="D2" t="n">
-        <v>17279.0</v>
+        <v>17279</v>
       </c>
       <c r="E2" t="n">
-        <v>7399.0</v>
+        <v>7399</v>
       </c>
       <c r="F2" t="n">
-        <v>98959.0</v>
+        <v>98959</v>
       </c>
       <c r="G2" t="n">
-        <v>51912.0</v>
+        <v>51912</v>
       </c>
       <c r="H2" t="n">
-        <v>4297.0</v>
+        <v>4297</v>
       </c>
       <c r="I2" t="n">
-        <v>25582.0</v>
+        <v>25582</v>
       </c>
       <c r="J2" t="n">
-        <v>13186.0</v>
+        <v>13186</v>
       </c>
       <c r="K2" t="n">
-        <v>31559.0</v>
+        <v>31559</v>
       </c>
       <c r="L2" t="n">
-        <v>18886.0</v>
+        <v>18886</v>
       </c>
       <c r="M2" t="n">
-        <v>3796.0</v>
+        <v>3796</v>
       </c>
       <c r="N2" t="n">
-        <v>11756.0</v>
+        <v>11756</v>
       </c>
       <c r="O2" t="n">
-        <v>25870.0</v>
+        <v>25870</v>
       </c>
       <c r="P2" t="n">
-        <v>11413.0</v>
+        <v>11413</v>
       </c>
       <c r="Q2" t="n">
-        <v>8866.0</v>
+        <v>8866</v>
       </c>
       <c r="R2" t="n">
-        <v>16861.0</v>
+        <v>16861</v>
       </c>
       <c r="S2" t="n">
-        <v>8685.0</v>
+        <v>8685</v>
       </c>
       <c r="T2" t="n">
-        <v>-10202.0</v>
+        <v>-10202</v>
       </c>
       <c r="U2" t="n">
-        <v>4699.0</v>
+        <v>4699</v>
       </c>
       <c r="V2" t="n">
-        <v>14719.0</v>
+        <v>14719</v>
       </c>
       <c r="W2" t="n">
-        <v>10413.0</v>
+        <v>10413</v>
       </c>
       <c r="X2" t="n">
-        <v>7185.0</v>
+        <v>7185</v>
       </c>
       <c r="Y2" t="n">
-        <v>19812.0</v>
+        <v>19812</v>
       </c>
       <c r="Z2" t="n">
-        <v>22858.0</v>
+        <v>22858</v>
       </c>
       <c r="AA2" t="n">
-        <v>25581.0</v>
+        <v>25581</v>
       </c>
       <c r="AB2" t="n">
-        <v>20702.0</v>
+        <v>20702</v>
       </c>
       <c r="AC2" t="n">
-        <v>7995.0</v>
+        <v>7995</v>
       </c>
       <c r="AD2" t="n">
-        <v>32518.0</v>
+        <v>32518</v>
       </c>
       <c r="AE2" t="n">
-        <v>15709.0</v>
+        <v>15709</v>
       </c>
       <c r="AF2" t="n">
-        <v>16216.0</v>
+        <v>16216</v>
       </c>
       <c r="AG2" t="n">
-        <v>34534.0</v>
+        <v>34534</v>
       </c>
       <c r="AH2" t="n">
-        <v>32552.0</v>
+        <v>32552</v>
       </c>
       <c r="AI2" t="n">
-        <v>28311.0</v>
+        <v>28311</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10881.0</v>
+        <v>10881</v>
       </c>
       <c r="AK2" t="n">
-        <v>26051.0</v>
+        <v>26051</v>
       </c>
       <c r="AL2" t="n">
-        <v>18710.0</v>
+        <v>18710</v>
       </c>
       <c r="AM2" t="n">
-        <v>72152.0</v>
+        <v>72152</v>
       </c>
       <c r="AN2" t="n">
-        <v>27067.0</v>
+        <v>27067</v>
       </c>
       <c r="AO2" t="n">
-        <v>233544.0</v>
+        <v>233544</v>
       </c>
       <c r="AP2" t="n">
-        <v>73946.0</v>
+        <v>73946</v>
       </c>
       <c r="AQ2" t="n">
-        <v>404296.0</v>
+        <v>404296</v>
       </c>
       <c r="AR2" t="n">
-        <v>107085.0</v>
+        <v>107085</v>
       </c>
       <c r="AS2" t="n">
-        <v>4030.0</v>
+        <v>4030</v>
       </c>
       <c r="AT2" t="n">
-        <v>6507.0</v>
+        <v>6507</v>
       </c>
       <c r="AU2" t="n">
-        <v>47935.0</v>
+        <v>47935</v>
       </c>
       <c r="AV2" t="n">
-        <v>9600.0</v>
+        <v>9600</v>
       </c>
       <c r="AW2" t="n">
-        <v>72754.0</v>
+        <v>72754</v>
       </c>
       <c r="AX2" t="n">
-        <v>10395.0</v>
+        <v>10395</v>
       </c>
       <c r="AY2" t="n">
-        <v>14397.0</v>
+        <v>14397</v>
       </c>
       <c r="AZ2" t="n">
-        <v>57074.0</v>
+        <v>57074</v>
       </c>
       <c r="BA2" t="n">
-        <v>55140.0</v>
+        <v>55140</v>
       </c>
       <c r="BB2" t="n">
-        <v>239426.0</v>
+        <v>239426</v>
       </c>
       <c r="BC2" t="n">
-        <v>311380.0</v>
+        <v>311380</v>
       </c>
       <c r="BD2" t="n">
-        <v>87258.0</v>
+        <v>87258</v>
       </c>
       <c r="BE2" t="n">
-        <v>35632.0</v>
+        <v>35632</v>
       </c>
       <c r="BF2" t="n">
-        <v>22340.0</v>
+        <v>22340</v>
       </c>
       <c r="BG2" t="n">
-        <v>20396.0</v>
+        <v>20396</v>
       </c>
       <c r="BH2" t="n">
-        <v>98016.0</v>
+        <v>98016</v>
       </c>
       <c r="BI2" t="n">
-        <v>20022.0</v>
+        <v>20022</v>
       </c>
       <c r="BJ2" t="n">
-        <v>369696.0</v>
+        <v>369696</v>
       </c>
       <c r="BK2" t="n">
-        <v>154661.0</v>
+        <v>154661</v>
       </c>
       <c r="BL2" t="n">
-        <v>42023.0</v>
+        <v>42023</v>
       </c>
       <c r="BM2" t="n">
-        <v>73702.0</v>
+        <v>73702</v>
       </c>
       <c r="BN2" t="n">
-        <v>70520.0</v>
+        <v>70520</v>
       </c>
       <c r="BO2" t="n">
-        <v>14303.0</v>
+        <v>14303</v>
       </c>
       <c r="BP2" t="n">
-        <v>52435.0</v>
+        <v>52435</v>
       </c>
       <c r="BQ2" t="n">
-        <v>44434.0</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>22220.0</v>
+        <v>22220</v>
       </c>
       <c r="C3" t="n">
-        <v>15042.0</v>
+        <v>15042</v>
       </c>
       <c r="D3" t="n">
-        <v>2128.0</v>
+        <v>2128</v>
       </c>
       <c r="E3" t="n">
-        <v>3461.0</v>
+        <v>3461</v>
       </c>
       <c r="F3" t="n">
-        <v>14807.0</v>
+        <v>14807</v>
       </c>
       <c r="G3" t="n">
-        <v>5555.0</v>
+        <v>5555</v>
       </c>
       <c r="H3" t="n">
-        <v>1933.0</v>
+        <v>1933</v>
       </c>
       <c r="I3" t="n">
-        <v>18006.0</v>
+        <v>18006</v>
       </c>
       <c r="J3" t="n">
-        <v>8241.0</v>
+        <v>8241</v>
       </c>
       <c r="K3" t="n">
-        <v>19447.0</v>
+        <v>19447</v>
       </c>
       <c r="L3" t="n">
-        <v>6047.0</v>
+        <v>6047</v>
       </c>
       <c r="M3" t="n">
-        <v>1222.0</v>
+        <v>1222</v>
       </c>
       <c r="N3" t="n">
-        <v>8654.0</v>
+        <v>8654</v>
       </c>
       <c r="O3" t="n">
-        <v>13378.0</v>
+        <v>13378</v>
       </c>
       <c r="P3" t="n">
-        <v>8579.0</v>
+        <v>8579</v>
       </c>
       <c r="Q3" t="n">
-        <v>5237.0</v>
+        <v>5237</v>
       </c>
       <c r="R3" t="n">
-        <v>8585.0</v>
+        <v>8585</v>
       </c>
       <c r="S3" t="n">
-        <v>4563.0</v>
+        <v>4563</v>
       </c>
       <c r="T3" t="n">
-        <v>4509.0</v>
+        <v>4509</v>
       </c>
       <c r="U3" t="n">
-        <v>2680.0</v>
+        <v>2680</v>
       </c>
       <c r="V3" t="n">
-        <v>7982.0</v>
+        <v>7982</v>
       </c>
       <c r="W3" t="n">
-        <v>6572.0</v>
+        <v>6572</v>
       </c>
       <c r="X3" t="n">
-        <v>3986.0</v>
+        <v>3986</v>
       </c>
       <c r="Y3" t="n">
-        <v>7272.0</v>
+        <v>7272</v>
       </c>
       <c r="Z3" t="n">
-        <v>15410.0</v>
+        <v>15410</v>
       </c>
       <c r="AA3" t="n">
-        <v>13885.0</v>
+        <v>13885</v>
       </c>
       <c r="AB3" t="n">
-        <v>9959.0</v>
+        <v>9959</v>
       </c>
       <c r="AC3" t="n">
-        <v>5079.0</v>
+        <v>5079</v>
       </c>
       <c r="AD3" t="n">
-        <v>18808.0</v>
+        <v>18808</v>
       </c>
       <c r="AE3" t="n">
-        <v>9354.0</v>
+        <v>9354</v>
       </c>
       <c r="AF3" t="n">
-        <v>11148.0</v>
+        <v>11148</v>
       </c>
       <c r="AG3" t="n">
-        <v>22501.0</v>
+        <v>22501</v>
       </c>
       <c r="AH3" t="n">
-        <v>17067.0</v>
+        <v>17067</v>
       </c>
       <c r="AI3" t="n">
-        <v>17826.0</v>
+        <v>17826</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6913.0</v>
+        <v>6913</v>
       </c>
       <c r="AK3" t="n">
-        <v>10955.0</v>
+        <v>10955</v>
       </c>
       <c r="AL3" t="n">
-        <v>8681.0</v>
+        <v>8681</v>
       </c>
       <c r="AM3" t="n">
-        <v>11551.0</v>
+        <v>11551</v>
       </c>
       <c r="AN3" t="n">
-        <v>11341.0</v>
+        <v>11341</v>
       </c>
       <c r="AO3" t="n">
-        <v>98486.0</v>
+        <v>98486</v>
       </c>
       <c r="AP3" t="n">
-        <v>31534.0</v>
+        <v>31534</v>
       </c>
       <c r="AQ3" t="n">
-        <v>191365.0</v>
+        <v>191365</v>
       </c>
       <c r="AR3" t="n">
-        <v>49777.0</v>
+        <v>49777</v>
       </c>
       <c r="AS3" t="n">
-        <v>3085.0</v>
+        <v>3085</v>
       </c>
       <c r="AT3" t="n">
-        <v>6155.0</v>
+        <v>6155</v>
       </c>
       <c r="AU3" t="n">
-        <v>27385.0</v>
+        <v>27385</v>
       </c>
       <c r="AV3" t="n">
-        <v>5788.0</v>
+        <v>5788</v>
       </c>
       <c r="AW3" t="n">
-        <v>29283.0</v>
+        <v>29283</v>
       </c>
       <c r="AX3" t="n">
-        <v>6303.0</v>
+        <v>6303</v>
       </c>
       <c r="AY3" t="n">
-        <v>7709.0</v>
+        <v>7709</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12542.0</v>
+        <v>12542</v>
       </c>
       <c r="BA3" t="n">
-        <v>29388.0</v>
+        <v>29388</v>
       </c>
       <c r="BB3" t="n">
-        <v>98204.0</v>
+        <v>98204</v>
       </c>
       <c r="BC3" t="n">
-        <v>4902.0</v>
+        <v>4902</v>
       </c>
       <c r="BD3" t="n">
-        <v>35198.0</v>
+        <v>35198</v>
       </c>
       <c r="BE3" t="n">
-        <v>18262.0</v>
+        <v>18262</v>
       </c>
       <c r="BF3" t="n">
-        <v>7753.0</v>
+        <v>7753</v>
       </c>
       <c r="BG3" t="n">
-        <v>7127.0</v>
+        <v>7127</v>
       </c>
       <c r="BH3" t="n">
-        <v>64835.0</v>
+        <v>64835</v>
       </c>
       <c r="BI3" t="n">
-        <v>17032.0</v>
+        <v>17032</v>
       </c>
       <c r="BJ3" t="n">
-        <v>323263.0</v>
+        <v>323263</v>
       </c>
       <c r="BK3" t="n">
-        <v>147804.0</v>
+        <v>147804</v>
       </c>
       <c r="BL3" t="n">
-        <v>37594.0</v>
+        <v>37594</v>
       </c>
       <c r="BM3" t="n">
-        <v>70059.0</v>
+        <v>70059</v>
       </c>
       <c r="BN3" t="n">
-        <v>41952.0</v>
+        <v>41952</v>
       </c>
       <c r="BO3" t="n">
-        <v>7578.0</v>
+        <v>7578</v>
       </c>
       <c r="BP3" t="n">
-        <v>31400.0</v>
+        <v>31400</v>
       </c>
       <c r="BQ3" t="n">
-        <v>44434.0</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="n">
-        <v>18815.0</v>
+        <v>18815</v>
       </c>
       <c r="C4" t="n">
-        <v>13036.0</v>
+        <v>13036</v>
       </c>
       <c r="D4" t="n">
-        <v>1774.0</v>
+        <v>1774</v>
       </c>
       <c r="E4" t="n">
-        <v>2729.0</v>
+        <v>2729</v>
       </c>
       <c r="F4" t="n">
-        <v>10561.0</v>
+        <v>10561</v>
       </c>
       <c r="G4" t="n">
-        <v>4072.0</v>
+        <v>4072</v>
       </c>
       <c r="H4" t="n">
-        <v>1496.0</v>
+        <v>1496</v>
       </c>
       <c r="I4" t="n">
-        <v>13769.0</v>
+        <v>13769</v>
       </c>
       <c r="J4" t="n">
-        <v>5904.0</v>
+        <v>5904</v>
       </c>
       <c r="K4" t="n">
-        <v>15226.0</v>
+        <v>15226</v>
       </c>
       <c r="L4" t="n">
-        <v>4570.0</v>
+        <v>4570</v>
       </c>
       <c r="M4" t="n">
-        <v>924.0</v>
+        <v>924</v>
       </c>
       <c r="N4" t="n">
-        <v>6884.0</v>
+        <v>6884</v>
       </c>
       <c r="O4" t="n">
-        <v>10710.0</v>
+        <v>10710</v>
       </c>
       <c r="P4" t="n">
-        <v>6808.0</v>
+        <v>6808</v>
       </c>
       <c r="Q4" t="n">
-        <v>4235.0</v>
+        <v>4235</v>
       </c>
       <c r="R4" t="n">
-        <v>6508.0</v>
+        <v>6508</v>
       </c>
       <c r="S4" t="n">
-        <v>3593.0</v>
+        <v>3593</v>
       </c>
       <c r="T4" t="n">
-        <v>3105.0</v>
+        <v>3105</v>
       </c>
       <c r="U4" t="n">
-        <v>2071.0</v>
+        <v>2071</v>
       </c>
       <c r="V4" t="n">
-        <v>5942.0</v>
+        <v>5942</v>
       </c>
       <c r="W4" t="n">
-        <v>4888.0</v>
+        <v>4888</v>
       </c>
       <c r="X4" t="n">
-        <v>3181.0</v>
+        <v>3181</v>
       </c>
       <c r="Y4" t="n">
-        <v>5525.0</v>
+        <v>5525</v>
       </c>
       <c r="Z4" t="n">
-        <v>11783.0</v>
+        <v>11783</v>
       </c>
       <c r="AA4" t="n">
-        <v>10937.0</v>
+        <v>10937</v>
       </c>
       <c r="AB4" t="n">
-        <v>7493.0</v>
+        <v>7493</v>
       </c>
       <c r="AC4" t="n">
-        <v>3903.0</v>
+        <v>3903</v>
       </c>
       <c r="AD4" t="n">
-        <v>14644.0</v>
+        <v>14644</v>
       </c>
       <c r="AE4" t="n">
-        <v>7150.0</v>
+        <v>7150</v>
       </c>
       <c r="AF4" t="n">
-        <v>8558.0</v>
+        <v>8558</v>
       </c>
       <c r="AG4" t="n">
-        <v>17125.0</v>
+        <v>17125</v>
       </c>
       <c r="AH4" t="n">
-        <v>12947.0</v>
+        <v>12947</v>
       </c>
       <c r="AI4" t="n">
-        <v>13642.0</v>
+        <v>13642</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5302.0</v>
+        <v>5302</v>
       </c>
       <c r="AK4" t="n">
-        <v>8614.0</v>
+        <v>8614</v>
       </c>
       <c r="AL4" t="n">
-        <v>6981.0</v>
+        <v>6981</v>
       </c>
       <c r="AM4" t="n">
-        <v>8499.0</v>
+        <v>8499</v>
       </c>
       <c r="AN4" t="n">
-        <v>8802.0</v>
+        <v>8802</v>
       </c>
       <c r="AO4" t="n">
-        <v>79688.0</v>
+        <v>79688</v>
       </c>
       <c r="AP4" t="n">
-        <v>25537.0</v>
+        <v>25537</v>
       </c>
       <c r="AQ4" t="n">
-        <v>152388.0</v>
+        <v>152388</v>
       </c>
       <c r="AR4" t="n">
-        <v>39801.0</v>
+        <v>39801</v>
       </c>
       <c r="AS4" t="n">
-        <v>2398.0</v>
+        <v>2398</v>
       </c>
       <c r="AT4" t="n">
-        <v>4679.0</v>
+        <v>4679</v>
       </c>
       <c r="AU4" t="n">
-        <v>21041.0</v>
+        <v>21041</v>
       </c>
       <c r="AV4" t="n">
-        <v>4699.0</v>
+        <v>4699</v>
       </c>
       <c r="AW4" t="n">
-        <v>24847.0</v>
+        <v>24847</v>
       </c>
       <c r="AX4" t="n">
-        <v>4902.0</v>
+        <v>4902</v>
       </c>
       <c r="AY4" t="n">
-        <v>5953.0</v>
+        <v>5953</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9587.0</v>
+        <v>9587</v>
       </c>
       <c r="BA4" t="n">
-        <v>22832.0</v>
+        <v>22832</v>
       </c>
       <c r="BB4" t="n">
-        <v>75065.0</v>
+        <v>75065</v>
       </c>
       <c r="BC4" t="n">
-        <v>3762.0</v>
+        <v>3762</v>
       </c>
       <c r="BD4" t="n">
-        <v>28175.0</v>
+        <v>28175</v>
       </c>
       <c r="BE4" t="n">
-        <v>14345.0</v>
+        <v>14345</v>
       </c>
       <c r="BF4" t="n">
-        <v>6267.0</v>
+        <v>6267</v>
       </c>
       <c r="BG4" t="n">
-        <v>5774.0</v>
+        <v>5774</v>
       </c>
       <c r="BH4" t="n">
-        <v>50586.0</v>
+        <v>50586</v>
       </c>
       <c r="BI4" t="n">
-        <v>13225.0</v>
+        <v>13225</v>
       </c>
       <c r="BJ4" t="n">
-        <v>228688.0</v>
+        <v>228688</v>
       </c>
       <c r="BK4" t="n">
-        <v>126654.0</v>
+        <v>126654</v>
       </c>
       <c r="BL4" t="n">
-        <v>31156.0</v>
+        <v>31156</v>
       </c>
       <c r="BM4" t="n">
-        <v>58053.0</v>
+        <v>58053</v>
       </c>
       <c r="BN4" t="n">
-        <v>34919.0</v>
+        <v>34919</v>
       </c>
       <c r="BO4" t="n">
-        <v>6688.0</v>
+        <v>6688</v>
       </c>
       <c r="BP4" t="n">
-        <v>26979.0</v>
+        <v>26979</v>
       </c>
       <c r="BQ4" t="n">
-        <v>42261.0</v>
+        <v>42261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="n">
-        <v>3405.0</v>
+        <v>3405</v>
       </c>
       <c r="C5" t="n">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="D5" t="n">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="E5" t="n">
-        <v>732.0</v>
+        <v>732</v>
       </c>
       <c r="F5" t="n">
-        <v>4246.0</v>
+        <v>4246</v>
       </c>
       <c r="G5" t="n">
-        <v>1483.0</v>
+        <v>1483</v>
       </c>
       <c r="H5" t="n">
-        <v>437.0</v>
+        <v>437</v>
       </c>
       <c r="I5" t="n">
-        <v>4237.0</v>
+        <v>4237</v>
       </c>
       <c r="J5" t="n">
-        <v>2337.0</v>
+        <v>2337</v>
       </c>
       <c r="K5" t="n">
-        <v>4221.0</v>
+        <v>4221</v>
       </c>
       <c r="L5" t="n">
-        <v>1477.0</v>
+        <v>1477</v>
       </c>
       <c r="M5" t="n">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="N5" t="n">
-        <v>1770.0</v>
+        <v>1770</v>
       </c>
       <c r="O5" t="n">
-        <v>2668.0</v>
+        <v>2668</v>
       </c>
       <c r="P5" t="n">
-        <v>1771.0</v>
+        <v>1771</v>
       </c>
       <c r="Q5" t="n">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="R5" t="n">
-        <v>2077.0</v>
+        <v>2077</v>
       </c>
       <c r="S5" t="n">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="T5" t="n">
-        <v>1404.0</v>
+        <v>1404</v>
       </c>
       <c r="U5" t="n">
-        <v>609.0</v>
+        <v>609</v>
       </c>
       <c r="V5" t="n">
-        <v>2040.0</v>
+        <v>2040</v>
       </c>
       <c r="W5" t="n">
-        <v>1684.0</v>
+        <v>1684</v>
       </c>
       <c r="X5" t="n">
-        <v>805.0</v>
+        <v>805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1747.0</v>
+        <v>1747</v>
       </c>
       <c r="Z5" t="n">
-        <v>3627.0</v>
+        <v>3627</v>
       </c>
       <c r="AA5" t="n">
-        <v>2948.0</v>
+        <v>2948</v>
       </c>
       <c r="AB5" t="n">
-        <v>2466.0</v>
+        <v>2466</v>
       </c>
       <c r="AC5" t="n">
-        <v>1176.0</v>
+        <v>1176</v>
       </c>
       <c r="AD5" t="n">
-        <v>4164.0</v>
+        <v>4164</v>
       </c>
       <c r="AE5" t="n">
-        <v>2204.0</v>
+        <v>2204</v>
       </c>
       <c r="AF5" t="n">
-        <v>2590.0</v>
+        <v>2590</v>
       </c>
       <c r="AG5" t="n">
-        <v>5376.0</v>
+        <v>5376</v>
       </c>
       <c r="AH5" t="n">
-        <v>4120.0</v>
+        <v>4120</v>
       </c>
       <c r="AI5" t="n">
-        <v>4184.0</v>
+        <v>4184</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1611.0</v>
+        <v>1611</v>
       </c>
       <c r="AK5" t="n">
-        <v>2341.0</v>
+        <v>2341</v>
       </c>
       <c r="AL5" t="n">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="AM5" t="n">
-        <v>3052.0</v>
+        <v>3052</v>
       </c>
       <c r="AN5" t="n">
-        <v>2539.0</v>
+        <v>2539</v>
       </c>
       <c r="AO5" t="n">
-        <v>18798.0</v>
+        <v>18798</v>
       </c>
       <c r="AP5" t="n">
-        <v>5997.0</v>
+        <v>5997</v>
       </c>
       <c r="AQ5" t="n">
-        <v>38977.0</v>
+        <v>38977</v>
       </c>
       <c r="AR5" t="n">
-        <v>9976.0</v>
+        <v>9976</v>
       </c>
       <c r="AS5" t="n">
-        <v>687.0</v>
+        <v>687</v>
       </c>
       <c r="AT5" t="n">
-        <v>1476.0</v>
+        <v>1476</v>
       </c>
       <c r="AU5" t="n">
-        <v>6344.0</v>
+        <v>6344</v>
       </c>
       <c r="AV5" t="n">
-        <v>1089.0</v>
+        <v>1089</v>
       </c>
       <c r="AW5" t="n">
-        <v>4436.0</v>
+        <v>4436</v>
       </c>
       <c r="AX5" t="n">
-        <v>1401.0</v>
+        <v>1401</v>
       </c>
       <c r="AY5" t="n">
-        <v>1756.0</v>
+        <v>1756</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2955.0</v>
+        <v>2955</v>
       </c>
       <c r="BA5" t="n">
-        <v>6556.0</v>
+        <v>6556</v>
       </c>
       <c r="BB5" t="n">
-        <v>23139.0</v>
+        <v>23139</v>
       </c>
       <c r="BC5" t="n">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="BD5" t="n">
-        <v>7023.0</v>
+        <v>7023</v>
       </c>
       <c r="BE5" t="n">
-        <v>3917.0</v>
+        <v>3917</v>
       </c>
       <c r="BF5" t="n">
-        <v>1486.0</v>
+        <v>1486</v>
       </c>
       <c r="BG5" t="n">
-        <v>1353.0</v>
+        <v>1353</v>
       </c>
       <c r="BH5" t="n">
-        <v>14249.0</v>
+        <v>14249</v>
       </c>
       <c r="BI5" t="n">
-        <v>3807.0</v>
+        <v>3807</v>
       </c>
       <c r="BJ5" t="n">
-        <v>46618.0</v>
+        <v>46618</v>
       </c>
       <c r="BK5" t="n">
-        <v>18548.0</v>
+        <v>18548</v>
       </c>
       <c r="BL5" t="n">
-        <v>6438.0</v>
+        <v>6438</v>
       </c>
       <c r="BM5" t="n">
-        <v>7926.0</v>
+        <v>7926</v>
       </c>
       <c r="BN5" t="n">
-        <v>7033.0</v>
+        <v>7033</v>
       </c>
       <c r="BO5" t="n">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="BP5" t="n">
-        <v>4421.0</v>
+        <v>4421</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2173.0</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="n">
-        <v>3404.0</v>
+        <v>3404</v>
       </c>
       <c r="C6" t="n">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="D6" t="n">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="E6" t="n">
-        <v>694.0</v>
+        <v>694</v>
       </c>
       <c r="F6" t="n">
-        <v>3265.0</v>
+        <v>3265</v>
       </c>
       <c r="G6" t="n">
-        <v>1256.0</v>
+        <v>1256</v>
       </c>
       <c r="H6" t="n">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="I6" t="n">
-        <v>4122.0</v>
+        <v>4122</v>
       </c>
       <c r="J6" t="n">
-        <v>2302.0</v>
+        <v>2302</v>
       </c>
       <c r="K6" t="n">
-        <v>4054.0</v>
+        <v>4054</v>
       </c>
       <c r="L6" t="n">
-        <v>1367.0</v>
+        <v>1367</v>
       </c>
       <c r="M6" t="n">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="N6" t="n">
-        <v>1759.0</v>
+        <v>1759</v>
       </c>
       <c r="O6" t="n">
-        <v>2654.0</v>
+        <v>2654</v>
       </c>
       <c r="P6" t="n">
-        <v>1756.0</v>
+        <v>1756</v>
       </c>
       <c r="Q6" t="n">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="R6" t="n">
-        <v>1951.0</v>
+        <v>1951</v>
       </c>
       <c r="S6" t="n">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="T6" t="n">
-        <v>907.0</v>
+        <v>907</v>
       </c>
       <c r="U6" t="n">
-        <v>586.0</v>
+        <v>586</v>
       </c>
       <c r="V6" t="n">
-        <v>1780.0</v>
+        <v>1780</v>
       </c>
       <c r="W6" t="n">
-        <v>1480.0</v>
+        <v>1480</v>
       </c>
       <c r="X6" t="n">
-        <v>765.0</v>
+        <v>765</v>
       </c>
       <c r="Y6" t="n">
-        <v>1628.0</v>
+        <v>1628</v>
       </c>
       <c r="Z6" t="n">
-        <v>3478.0</v>
+        <v>3478</v>
       </c>
       <c r="AA6" t="n">
-        <v>2869.0</v>
+        <v>2869</v>
       </c>
       <c r="AB6" t="n">
-        <v>2314.0</v>
+        <v>2314</v>
       </c>
       <c r="AC6" t="n">
-        <v>1134.0</v>
+        <v>1134</v>
       </c>
       <c r="AD6" t="n">
-        <v>4015.0</v>
+        <v>4015</v>
       </c>
       <c r="AE6" t="n">
-        <v>2099.0</v>
+        <v>2099</v>
       </c>
       <c r="AF6" t="n">
-        <v>2455.0</v>
+        <v>2455</v>
       </c>
       <c r="AG6" t="n">
-        <v>5160.0</v>
+        <v>5160</v>
       </c>
       <c r="AH6" t="n">
-        <v>3831.0</v>
+        <v>3831</v>
       </c>
       <c r="AI6" t="n">
-        <v>4055.0</v>
+        <v>4055</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1538.0</v>
+        <v>1538</v>
       </c>
       <c r="AK6" t="n">
-        <v>2280.0</v>
+        <v>2280</v>
       </c>
       <c r="AL6" t="n">
-        <v>1635.0</v>
+        <v>1635</v>
       </c>
       <c r="AM6" t="n">
-        <v>2446.0</v>
+        <v>2446</v>
       </c>
       <c r="AN6" t="n">
-        <v>2471.0</v>
+        <v>2471</v>
       </c>
       <c r="AO6" t="n">
-        <v>18256.0</v>
+        <v>18256</v>
       </c>
       <c r="AP6" t="n">
-        <v>5937.0</v>
+        <v>5937</v>
       </c>
       <c r="AQ6" t="n">
-        <v>38258.0</v>
+        <v>38258</v>
       </c>
       <c r="AR6" t="n">
-        <v>9741.0</v>
+        <v>9741</v>
       </c>
       <c r="AS6" t="n">
-        <v>670.0</v>
+        <v>670</v>
       </c>
       <c r="AT6" t="n">
-        <v>1393.0</v>
+        <v>1393</v>
       </c>
       <c r="AU6" t="n">
-        <v>5878.0</v>
+        <v>5878</v>
       </c>
       <c r="AV6" t="n">
-        <v>1064.0</v>
+        <v>1064</v>
       </c>
       <c r="AW6" t="n">
-        <v>4389.0</v>
+        <v>4389</v>
       </c>
       <c r="AX6" t="n">
-        <v>1308.0</v>
+        <v>1308</v>
       </c>
       <c r="AY6" t="n">
-        <v>1613.0</v>
+        <v>1613</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2645.0</v>
+        <v>2645</v>
       </c>
       <c r="BA6" t="n">
-        <v>6240.0</v>
+        <v>6240</v>
       </c>
       <c r="BB6" t="n">
-        <v>17114.0</v>
+        <v>17114</v>
       </c>
       <c r="BC6" t="n">
-        <v>1087.0</v>
+        <v>1087</v>
       </c>
       <c r="BD6" t="n">
-        <v>6602.0</v>
+        <v>6602</v>
       </c>
       <c r="BE6" t="n">
-        <v>3839.0</v>
+        <v>3839</v>
       </c>
       <c r="BF6" t="n">
-        <v>1466.0</v>
+        <v>1466</v>
       </c>
       <c r="BG6" t="n">
-        <v>1326.0</v>
+        <v>1326</v>
       </c>
       <c r="BH6" t="n">
-        <v>14000.0</v>
+        <v>14000</v>
       </c>
       <c r="BI6" t="n">
-        <v>3749.0</v>
+        <v>3749</v>
       </c>
       <c r="BJ6" t="n">
-        <v>46373.0</v>
+        <v>46373</v>
       </c>
       <c r="BK6" t="n">
-        <v>18499.0</v>
+        <v>18499</v>
       </c>
       <c r="BL6" t="n">
-        <v>6087.0</v>
+        <v>6087</v>
       </c>
       <c r="BM6" t="n">
-        <v>7925.0</v>
+        <v>7925</v>
       </c>
       <c r="BN6" t="n">
-        <v>6845.0</v>
+        <v>6845</v>
       </c>
       <c r="BO6" t="n">
-        <v>875.0</v>
+        <v>875</v>
       </c>
       <c r="BP6" t="n">
-        <v>4315.0</v>
+        <v>4315</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2173.0</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>38</v>
+      </c>
+      <c r="F7" t="n">
+        <v>981</v>
+      </c>
+      <c r="G7" t="n">
+        <v>227</v>
+      </c>
+      <c r="H7" t="n">
+        <v>44</v>
+      </c>
+      <c r="I7" t="n">
+        <v>115</v>
+      </c>
+      <c r="J7" t="n">
+        <v>35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>167</v>
+      </c>
+      <c r="L7" t="n">
+        <v>110</v>
+      </c>
+      <c r="M7" t="n">
+        <v>16</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>126</v>
+      </c>
+      <c r="S7" t="n">
+        <v>40</v>
+      </c>
+      <c r="T7" t="n">
+        <v>497</v>
+      </c>
+      <c r="U7" t="n">
+        <v>23</v>
+      </c>
+      <c r="V7" t="n">
+        <v>260</v>
+      </c>
+      <c r="W7" t="n">
+        <v>204</v>
+      </c>
+      <c r="X7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>119</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>149</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>79</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>152</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>149</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>105</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>135</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>216</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>289</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>129</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>73</v>
       </c>
-      <c r="B7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>981.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>227.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>167.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>497.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>260.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>216.0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>289.0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>73.0</v>
-      </c>
       <c r="AK7" t="n">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="AL7" t="n">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>606.0</v>
+        <v>606</v>
       </c>
       <c r="AN7" t="n">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="AO7" t="n">
-        <v>542.0</v>
+        <v>542</v>
       </c>
       <c r="AP7" t="n">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="AQ7" t="n">
-        <v>719.0</v>
+        <v>719</v>
       </c>
       <c r="AR7" t="n">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="AS7" t="n">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AT7" t="n">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="AU7" t="n">
-        <v>466.0</v>
+        <v>466</v>
       </c>
       <c r="AV7" t="n">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AW7" t="n">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AX7" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="AY7" t="n">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="AZ7" t="n">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="BA7" t="n">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="BB7" t="n">
-        <v>6025.0</v>
+        <v>6025</v>
       </c>
       <c r="BC7" t="n">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="BD7" t="n">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="BE7" t="n">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="BF7" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="BG7" t="n">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="BH7" t="n">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="BI7" t="n">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="BJ7" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="BK7" t="n">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="BL7" t="n">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BN7" t="n">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="BO7" t="n">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="BP7" t="n">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>47957.0</v>
+        <v>47957</v>
       </c>
       <c r="BK8" t="n">
-        <v>2602.0</v>
+        <v>2602</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>4080.0</v>
+        <v>4080</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="n">
-        <v>106437.0</v>
+        <v>106437</v>
       </c>
       <c r="C9" t="n">
-        <v>33049.0</v>
+        <v>33049</v>
       </c>
       <c r="D9" t="n">
-        <v>15101.0</v>
+        <v>15101</v>
       </c>
       <c r="E9" t="n">
-        <v>3864.0</v>
+        <v>3864</v>
       </c>
       <c r="F9" t="n">
-        <v>83325.0</v>
+        <v>83325</v>
       </c>
       <c r="G9" t="n">
-        <v>45945.0</v>
+        <v>45945</v>
       </c>
       <c r="H9" t="n">
-        <v>2269.0</v>
+        <v>2269</v>
       </c>
       <c r="I9" t="n">
-        <v>6518.0</v>
+        <v>6518</v>
       </c>
       <c r="J9" t="n">
-        <v>4458.0</v>
+        <v>4458</v>
       </c>
       <c r="K9" t="n">
-        <v>10930.0</v>
+        <v>10930</v>
       </c>
       <c r="L9" t="n">
-        <v>12330.0</v>
+        <v>12330</v>
       </c>
       <c r="M9" t="n">
-        <v>2496.0</v>
+        <v>2496</v>
       </c>
       <c r="N9" t="n">
-        <v>2792.0</v>
+        <v>2792</v>
       </c>
       <c r="O9" t="n">
-        <v>12018.0</v>
+        <v>12018</v>
       </c>
       <c r="P9" t="n">
-        <v>2524.0</v>
+        <v>2524</v>
       </c>
       <c r="Q9" t="n">
-        <v>3417.0</v>
+        <v>3417</v>
       </c>
       <c r="R9" t="n">
-        <v>7933.0</v>
+        <v>7933</v>
       </c>
       <c r="S9" t="n">
-        <v>3895.0</v>
+        <v>3895</v>
       </c>
       <c r="T9" t="n">
-        <v>-15297.0</v>
+        <v>-15297</v>
       </c>
       <c r="U9" t="n">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="V9" t="n">
-        <v>6128.0</v>
+        <v>6128</v>
       </c>
       <c r="W9" t="n">
-        <v>3496.0</v>
+        <v>3496</v>
       </c>
       <c r="X9" t="n">
-        <v>3016.0</v>
+        <v>3016</v>
       </c>
       <c r="Y9" t="n">
-        <v>12235.0</v>
+        <v>12235</v>
       </c>
       <c r="Z9" t="n">
-        <v>6881.0</v>
+        <v>6881</v>
       </c>
       <c r="AA9" t="n">
-        <v>11212.0</v>
+        <v>11212</v>
       </c>
       <c r="AB9" t="n">
-        <v>10166.0</v>
+        <v>10166</v>
       </c>
       <c r="AC9" t="n">
-        <v>2684.0</v>
+        <v>2684</v>
       </c>
       <c r="AD9" t="n">
-        <v>13041.0</v>
+        <v>13041</v>
       </c>
       <c r="AE9" t="n">
-        <v>5725.0</v>
+        <v>5725</v>
       </c>
       <c r="AF9" t="n">
-        <v>4634.0</v>
+        <v>4634</v>
       </c>
       <c r="AG9" t="n">
-        <v>11291.0</v>
+        <v>11291</v>
       </c>
       <c r="AH9" t="n">
-        <v>14666.0</v>
+        <v>14666</v>
       </c>
       <c r="AI9" t="n">
-        <v>9912.0</v>
+        <v>9912</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3809.0</v>
+        <v>3809</v>
       </c>
       <c r="AK9" t="n">
-        <v>14699.0</v>
+        <v>14699</v>
       </c>
       <c r="AL9" t="n">
-        <v>9784.0</v>
+        <v>9784</v>
       </c>
       <c r="AM9" t="n">
-        <v>59806.0</v>
+        <v>59806</v>
       </c>
       <c r="AN9" t="n">
-        <v>15298.0</v>
+        <v>15298</v>
       </c>
       <c r="AO9" t="n">
-        <v>132414.0</v>
+        <v>132414</v>
       </c>
       <c r="AP9" t="n">
-        <v>41530.0</v>
+        <v>41530</v>
       </c>
       <c r="AQ9" t="n">
-        <v>207328.0</v>
+        <v>207328</v>
       </c>
       <c r="AR9" t="n">
-        <v>57110.0</v>
+        <v>57110</v>
       </c>
       <c r="AS9" t="n">
-        <v>749.0</v>
+        <v>749</v>
       </c>
       <c r="AT9" t="n">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AU9" t="n">
-        <v>19490.0</v>
+        <v>19490</v>
       </c>
       <c r="AV9" t="n">
-        <v>3619.0</v>
+        <v>3619</v>
       </c>
       <c r="AW9" t="n">
-        <v>42691.0</v>
+        <v>42691</v>
       </c>
       <c r="AX9" t="n">
-        <v>3876.0</v>
+        <v>3876</v>
       </c>
       <c r="AY9" t="n">
-        <v>5812.0</v>
+        <v>5812</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41023.0</v>
+        <v>41023</v>
       </c>
       <c r="BA9" t="n">
-        <v>24882.0</v>
+        <v>24882</v>
       </c>
       <c r="BB9" t="n">
-        <v>136706.0</v>
+        <v>136706</v>
       </c>
       <c r="BC9" t="n">
-        <v>306263.0</v>
+        <v>306263</v>
       </c>
       <c r="BD9" t="n">
-        <v>50878.0</v>
+        <v>50878</v>
       </c>
       <c r="BE9" t="n">
-        <v>16931.0</v>
+        <v>16931</v>
       </c>
       <c r="BF9" t="n">
-        <v>14342.0</v>
+        <v>14342</v>
       </c>
       <c r="BG9" t="n">
-        <v>13114.0</v>
+        <v>13114</v>
       </c>
       <c r="BH9" t="n">
-        <v>31319.0</v>
+        <v>31319</v>
       </c>
       <c r="BI9" t="n">
-        <v>2478.0</v>
+        <v>2478</v>
       </c>
       <c r="BJ9" t="n">
-        <v>46349.0</v>
+        <v>46349</v>
       </c>
       <c r="BK9" t="n">
-        <v>6854.0</v>
+        <v>6854</v>
       </c>
       <c r="BL9" t="n">
-        <v>3735.0</v>
+        <v>3735</v>
       </c>
       <c r="BM9" t="n">
-        <v>3643.0</v>
+        <v>3643</v>
       </c>
       <c r="BN9" t="n">
-        <v>27548.0</v>
+        <v>27548</v>
       </c>
       <c r="BO9" t="n">
-        <v>6598.0</v>
+        <v>6598</v>
       </c>
       <c r="BP9" t="n">
-        <v>20481.0</v>
+        <v>20481</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" t="n">
-        <v>56929.0</v>
+        <v>56929</v>
       </c>
       <c r="C10" t="n">
-        <v>24605.0</v>
+        <v>24605</v>
       </c>
       <c r="D10" t="n">
-        <v>7416.0</v>
+        <v>7416</v>
       </c>
       <c r="E10" t="n">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2611.0</v>
+        <v>2611</v>
       </c>
       <c r="L10" t="n">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>721.0</v>
+        <v>721</v>
       </c>
       <c r="O10" t="n">
-        <v>6581.0</v>
+        <v>6581</v>
       </c>
       <c r="P10" t="n">
-        <v>589.0</v>
+        <v>589</v>
       </c>
       <c r="Q10" t="n">
-        <v>1352.0</v>
+        <v>1352</v>
       </c>
       <c r="R10" t="n">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="S10" t="n">
-        <v>485.0</v>
+        <v>485</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="AA10" t="n">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="AJ10" t="n">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AK10" t="n">
-        <v>1517.0</v>
+        <v>1517</v>
       </c>
       <c r="AL10" t="n">
-        <v>4443.0</v>
+        <v>4443</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1373.0</v>
+        <v>1373</v>
       </c>
       <c r="AO10" t="n">
-        <v>49686.0</v>
+        <v>49686</v>
       </c>
       <c r="AP10" t="n">
-        <v>16104.0</v>
+        <v>16104</v>
       </c>
       <c r="AQ10" t="n">
-        <v>44202.0</v>
+        <v>44202</v>
       </c>
       <c r="AR10" t="n">
-        <v>21726.0</v>
+        <v>21726</v>
       </c>
       <c r="AS10" t="n">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>1017.0</v>
+        <v>1017</v>
       </c>
       <c r="AV10" t="n">
-        <v>753.0</v>
+        <v>753</v>
       </c>
       <c r="AW10" t="n">
-        <v>23673.0</v>
+        <v>23673</v>
       </c>
       <c r="AX10" t="n">
-        <v>672.0</v>
+        <v>672</v>
       </c>
       <c r="AY10" t="n">
-        <v>379.0</v>
+        <v>379</v>
       </c>
       <c r="AZ10" t="n">
-        <v>483.0</v>
+        <v>483</v>
       </c>
       <c r="BA10" t="n">
-        <v>5147.0</v>
+        <v>5147</v>
       </c>
       <c r="BB10" t="n">
-        <v>1633.0</v>
+        <v>1633</v>
       </c>
       <c r="BC10" t="n">
-        <v>3904.0</v>
+        <v>3904</v>
       </c>
       <c r="BD10" t="n">
-        <v>23078.0</v>
+        <v>23078</v>
       </c>
       <c r="BE10" t="n">
-        <v>7157.0</v>
+        <v>7157</v>
       </c>
       <c r="BF10" t="n">
-        <v>4695.0</v>
+        <v>4695</v>
       </c>
       <c r="BG10" t="n">
-        <v>704.0</v>
+        <v>704</v>
       </c>
       <c r="BH10" t="n">
-        <v>3309.0</v>
+        <v>3309</v>
       </c>
       <c r="BI10" t="n">
-        <v>678.0</v>
+        <v>678</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>3450.0</v>
+        <v>3450</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>17584.0</v>
+        <v>17584</v>
       </c>
       <c r="BO10" t="n">
-        <v>4917.0</v>
+        <v>4917</v>
       </c>
       <c r="BP10" t="n">
-        <v>16254.0</v>
+        <v>16254</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" t="n">
-        <v>49508.0</v>
+        <v>49508</v>
       </c>
       <c r="C11" t="n">
-        <v>8444.0</v>
+        <v>8444</v>
       </c>
       <c r="D11" t="n">
-        <v>7685.0</v>
+        <v>7685</v>
       </c>
       <c r="E11" t="n">
-        <v>3589.0</v>
+        <v>3589</v>
       </c>
       <c r="F11" t="n">
-        <v>83325.0</v>
+        <v>83325</v>
       </c>
       <c r="G11" t="n">
-        <v>45945.0</v>
+        <v>45945</v>
       </c>
       <c r="H11" t="n">
-        <v>2269.0</v>
+        <v>2269</v>
       </c>
       <c r="I11" t="n">
-        <v>6277.0</v>
+        <v>6277</v>
       </c>
       <c r="J11" t="n">
-        <v>4458.0</v>
+        <v>4458</v>
       </c>
       <c r="K11" t="n">
-        <v>8319.0</v>
+        <v>8319</v>
       </c>
       <c r="L11" t="n">
-        <v>12312.0</v>
+        <v>12312</v>
       </c>
       <c r="M11" t="n">
-        <v>2496.0</v>
+        <v>2496</v>
       </c>
       <c r="N11" t="n">
-        <v>2071.0</v>
+        <v>2071</v>
       </c>
       <c r="O11" t="n">
-        <v>5437.0</v>
+        <v>5437</v>
       </c>
       <c r="P11" t="n">
-        <v>1935.0</v>
+        <v>1935</v>
       </c>
       <c r="Q11" t="n">
-        <v>2065.0</v>
+        <v>2065</v>
       </c>
       <c r="R11" t="n">
-        <v>7734.0</v>
+        <v>7734</v>
       </c>
       <c r="S11" t="n">
-        <v>3410.0</v>
+        <v>3410</v>
       </c>
       <c r="T11" t="n">
-        <v>-15297.0</v>
+        <v>-15297</v>
       </c>
       <c r="U11" t="n">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="V11" t="n">
-        <v>6128.0</v>
+        <v>6128</v>
       </c>
       <c r="W11" t="n">
-        <v>3496.0</v>
+        <v>3496</v>
       </c>
       <c r="X11" t="n">
-        <v>2882.0</v>
+        <v>2882</v>
       </c>
       <c r="Y11" t="n">
-        <v>12235.0</v>
+        <v>12235</v>
       </c>
       <c r="Z11" t="n">
-        <v>6660.0</v>
+        <v>6660</v>
       </c>
       <c r="AA11" t="n">
-        <v>10547.0</v>
+        <v>10547</v>
       </c>
       <c r="AB11" t="n">
-        <v>10166.0</v>
+        <v>10166</v>
       </c>
       <c r="AC11" t="n">
-        <v>2684.0</v>
+        <v>2684</v>
       </c>
       <c r="AD11" t="n">
-        <v>11341.0</v>
+        <v>11341</v>
       </c>
       <c r="AE11" t="n">
-        <v>5725.0</v>
+        <v>5725</v>
       </c>
       <c r="AF11" t="n">
-        <v>4634.0</v>
+        <v>4634</v>
       </c>
       <c r="AG11" t="n">
-        <v>11291.0</v>
+        <v>11291</v>
       </c>
       <c r="AH11" t="n">
-        <v>14666.0</v>
+        <v>14666</v>
       </c>
       <c r="AI11" t="n">
-        <v>9840.0</v>
+        <v>9840</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3774.0</v>
+        <v>3774</v>
       </c>
       <c r="AK11" t="n">
-        <v>13182.0</v>
+        <v>13182</v>
       </c>
       <c r="AL11" t="n">
-        <v>5341.0</v>
+        <v>5341</v>
       </c>
       <c r="AM11" t="n">
-        <v>59806.0</v>
+        <v>59806</v>
       </c>
       <c r="AN11" t="n">
-        <v>13925.0</v>
+        <v>13925</v>
       </c>
       <c r="AO11" t="n">
-        <v>82728.0</v>
+        <v>82728</v>
       </c>
       <c r="AP11" t="n">
-        <v>25426.0</v>
+        <v>25426</v>
       </c>
       <c r="AQ11" t="n">
-        <v>163126.0</v>
+        <v>163126</v>
       </c>
       <c r="AR11" t="n">
-        <v>35384.0</v>
+        <v>35384</v>
       </c>
       <c r="AS11" t="n">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="AT11" t="n">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AU11" t="n">
-        <v>18473.0</v>
+        <v>18473</v>
       </c>
       <c r="AV11" t="n">
-        <v>2866.0</v>
+        <v>2866</v>
       </c>
       <c r="AW11" t="n">
-        <v>19018.0</v>
+        <v>19018</v>
       </c>
       <c r="AX11" t="n">
-        <v>3204.0</v>
+        <v>3204</v>
       </c>
       <c r="AY11" t="n">
-        <v>5433.0</v>
+        <v>5433</v>
       </c>
       <c r="AZ11" t="n">
-        <v>40540.0</v>
+        <v>40540</v>
       </c>
       <c r="BA11" t="n">
-        <v>19735.0</v>
+        <v>19735</v>
       </c>
       <c r="BB11" t="n">
-        <v>135073.0</v>
+        <v>135073</v>
       </c>
       <c r="BC11" t="n">
-        <v>302359.0</v>
+        <v>302359</v>
       </c>
       <c r="BD11" t="n">
-        <v>27800.0</v>
+        <v>27800</v>
       </c>
       <c r="BE11" t="n">
-        <v>9774.0</v>
+        <v>9774</v>
       </c>
       <c r="BF11" t="n">
-        <v>9647.0</v>
+        <v>9647</v>
       </c>
       <c r="BG11" t="n">
-        <v>12410.0</v>
+        <v>12410</v>
       </c>
       <c r="BH11" t="n">
-        <v>28010.0</v>
+        <v>28010</v>
       </c>
       <c r="BI11" t="n">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="BJ11" t="n">
-        <v>46349.0</v>
+        <v>46349</v>
       </c>
       <c r="BK11" t="n">
-        <v>6854.0</v>
+        <v>6854</v>
       </c>
       <c r="BL11" t="n">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="BM11" t="n">
-        <v>3643.0</v>
+        <v>3643</v>
       </c>
       <c r="BN11" t="n">
-        <v>9964.0</v>
+        <v>9964</v>
       </c>
       <c r="BO11" t="n">
-        <v>1681.0</v>
+        <v>1681</v>
       </c>
       <c r="BP11" t="n">
-        <v>4227.0</v>
+        <v>4227</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="n">
+        <v>859</v>
+      </c>
+      <c r="C12" t="n">
+        <v>343</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>130</v>
+      </c>
+      <c r="F12" t="n">
+        <v>827</v>
+      </c>
+      <c r="G12" t="n">
+        <v>447</v>
+      </c>
+      <c r="H12" t="n">
+        <v>95</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1118</v>
+      </c>
+      <c r="J12" t="n">
+        <v>582</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1290</v>
+      </c>
+      <c r="L12" t="n">
+        <v>570</v>
+      </c>
+      <c r="M12" t="n">
         <v>78</v>
       </c>
-      <c r="B12" t="n">
-        <v>859.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>343.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>827.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>447.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1118.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>582.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1290.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>570.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>78.0</v>
-      </c>
       <c r="N12" t="n">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="O12" t="n">
-        <v>474.0</v>
+        <v>474</v>
       </c>
       <c r="P12" t="n">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="R12" t="n">
-        <v>427.0</v>
+        <v>427</v>
       </c>
       <c r="S12" t="n">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="T12" t="n">
-        <v>614.0</v>
+        <v>614</v>
       </c>
       <c r="U12" t="n">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="V12" t="n">
-        <v>626.0</v>
+        <v>626</v>
       </c>
       <c r="W12" t="n">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="X12" t="n">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="Y12" t="n">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="Z12" t="n">
-        <v>673.0</v>
+        <v>673</v>
       </c>
       <c r="AA12" t="n">
-        <v>594.0</v>
+        <v>594</v>
       </c>
       <c r="AB12" t="n">
-        <v>619.0</v>
+        <v>619</v>
       </c>
       <c r="AC12" t="n">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="AD12" t="n">
-        <v>745.0</v>
+        <v>745</v>
       </c>
       <c r="AE12" t="n">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="AF12" t="n">
-        <v>497.0</v>
+        <v>497</v>
       </c>
       <c r="AG12" t="n">
-        <v>941.0</v>
+        <v>941</v>
       </c>
       <c r="AH12" t="n">
-        <v>1026.0</v>
+        <v>1026</v>
       </c>
       <c r="AI12" t="n">
-        <v>751.0</v>
+        <v>751</v>
       </c>
       <c r="AJ12" t="n">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="AK12" t="n">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="AL12" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="AM12" t="n">
-        <v>1182.0</v>
+        <v>1182</v>
       </c>
       <c r="AN12" t="n">
-        <v>447.0</v>
+        <v>447</v>
       </c>
       <c r="AO12" t="n">
-        <v>3053.0</v>
+        <v>3053</v>
       </c>
       <c r="AP12" t="n">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5921.0</v>
+        <v>5921</v>
       </c>
       <c r="AR12" t="n">
-        <v>1761.0</v>
+        <v>1761</v>
       </c>
       <c r="AS12" t="n">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="AT12" t="n">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="AU12" t="n">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="AV12" t="n">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="AW12" t="n">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="AX12" t="n">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="AY12" t="n">
-        <v>876.0</v>
+        <v>876</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3551.0</v>
+        <v>3551</v>
       </c>
       <c r="BA12" t="n">
-        <v>888.0</v>
+        <v>888</v>
       </c>
       <c r="BB12" t="n">
-        <v>4516.0</v>
+        <v>4516</v>
       </c>
       <c r="BC12" t="n">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="BD12" t="n">
-        <v>1182.0</v>
+        <v>1182</v>
       </c>
       <c r="BE12" t="n">
-        <v>806.0</v>
+        <v>806</v>
       </c>
       <c r="BF12" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="BG12" t="n">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="BH12" t="n">
-        <v>1862.0</v>
+        <v>1862</v>
       </c>
       <c r="BI12" t="n">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="BJ12" t="n">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="BK12" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BL12" t="n">
-        <v>694.0</v>
+        <v>694</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="BO12" t="n">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="BP12" t="n">
-        <v>554.0</v>
+        <v>554</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="n">
-        <v>-5116.0</v>
+        <v>-5116</v>
       </c>
       <c r="C13" t="n">
-        <v>-89.0</v>
+        <v>-89</v>
       </c>
       <c r="D13" t="n">
-        <v>-38.0</v>
+        <v>-38</v>
       </c>
       <c r="E13" t="n">
-        <v>-56.0</v>
+        <v>-56</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-35.0</v>
+        <v>-35</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-60.0</v>
+        <v>-60</v>
       </c>
       <c r="J13" t="n">
-        <v>-95.0</v>
+        <v>-95</v>
       </c>
       <c r="K13" t="n">
-        <v>-108.0</v>
+        <v>-108</v>
       </c>
       <c r="L13" t="n">
-        <v>-61.0</v>
+        <v>-61</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-36.0</v>
+        <v>-36</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-23.0</v>
+        <v>-23</v>
       </c>
       <c r="R13" t="n">
-        <v>-84.0</v>
+        <v>-84</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-28.0</v>
+        <v>-28</v>
       </c>
       <c r="U13" t="n">
-        <v>-149.0</v>
+        <v>-149</v>
       </c>
       <c r="V13" t="n">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-19.0</v>
+        <v>-19</v>
       </c>
       <c r="Z13" t="n">
-        <v>-106.0</v>
+        <v>-106</v>
       </c>
       <c r="AA13" t="n">
-        <v>-110.0</v>
+        <v>-110</v>
       </c>
       <c r="AB13" t="n">
-        <v>-42.0</v>
+        <v>-42</v>
       </c>
       <c r="AC13" t="n">
-        <v>-40.0</v>
+        <v>-40</v>
       </c>
       <c r="AD13" t="n">
-        <v>-76.0</v>
+        <v>-76</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-63.0</v>
+        <v>-63</v>
       </c>
       <c r="AG13" t="n">
-        <v>-199.0</v>
+        <v>-199</v>
       </c>
       <c r="AH13" t="n">
-        <v>-207.0</v>
+        <v>-207</v>
       </c>
       <c r="AI13" t="n">
-        <v>-178.0</v>
+        <v>-178</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-137.0</v>
+        <v>-137</v>
       </c>
       <c r="AK13" t="n">
-        <v>-25.0</v>
+        <v>-25</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-387.0</v>
+        <v>-387</v>
       </c>
       <c r="AN13" t="n">
-        <v>-19.0</v>
+        <v>-19</v>
       </c>
       <c r="AO13" t="n">
-        <v>-409.0</v>
+        <v>-409</v>
       </c>
       <c r="AP13" t="n">
-        <v>-22.0</v>
+        <v>-22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-318.0</v>
+        <v>-318</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1563.0</v>
+        <v>-1563</v>
       </c>
       <c r="AS13" t="n">
-        <v>-16.0</v>
+        <v>-16</v>
       </c>
       <c r="AT13" t="n">
-        <v>-47.0</v>
+        <v>-47</v>
       </c>
       <c r="AU13" t="n">
-        <v>-60.0</v>
+        <v>-60</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-42.0</v>
+        <v>-42</v>
       </c>
       <c r="BA13" t="n">
-        <v>-18.0</v>
+        <v>-18</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-367.0</v>
+        <v>-367</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-138.0</v>
+        <v>-138</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" t="n">
-        <v>209241.0</v>
+        <v>209241</v>
       </c>
       <c r="C14" t="n">
-        <v>94213.0</v>
+        <v>94213</v>
       </c>
       <c r="D14" t="n">
-        <v>23693.0</v>
+        <v>23693</v>
       </c>
       <c r="E14" t="n">
-        <v>17265.0</v>
+        <v>17265</v>
       </c>
       <c r="F14" t="n">
-        <v>159027.0</v>
+        <v>159027</v>
       </c>
       <c r="G14" t="n">
-        <v>77063.0</v>
+        <v>77063</v>
       </c>
       <c r="H14" t="n">
-        <v>10533.0</v>
+        <v>10533</v>
       </c>
       <c r="I14" t="n">
-        <v>164010.0</v>
+        <v>164010</v>
       </c>
       <c r="J14" t="n">
-        <v>55818.0</v>
+        <v>55818</v>
       </c>
       <c r="K14" t="n">
-        <v>171317.0</v>
+        <v>171317</v>
       </c>
       <c r="L14" t="n">
-        <v>56908.0</v>
+        <v>56908</v>
       </c>
       <c r="M14" t="n">
-        <v>13087.0</v>
+        <v>13087</v>
       </c>
       <c r="N14" t="n">
-        <v>43173.0</v>
+        <v>43173</v>
       </c>
       <c r="O14" t="n">
-        <v>54296.0</v>
+        <v>54296</v>
       </c>
       <c r="P14" t="n">
-        <v>32619.0</v>
+        <v>32619</v>
       </c>
       <c r="Q14" t="n">
-        <v>22210.0</v>
+        <v>22210</v>
       </c>
       <c r="R14" t="n">
-        <v>58510.0</v>
+        <v>58510</v>
       </c>
       <c r="S14" t="n">
-        <v>19091.0</v>
+        <v>19091</v>
       </c>
       <c r="T14" t="n">
-        <v>253576.0</v>
+        <v>253576</v>
       </c>
       <c r="U14" t="n">
-        <v>23588.0</v>
+        <v>23588</v>
       </c>
       <c r="V14" t="n">
-        <v>105437.0</v>
+        <v>105437</v>
       </c>
       <c r="W14" t="n">
-        <v>50352.0</v>
+        <v>50352</v>
       </c>
       <c r="X14" t="n">
-        <v>27643.0</v>
+        <v>27643</v>
       </c>
       <c r="Y14" t="n">
-        <v>42790.0</v>
+        <v>42790</v>
       </c>
       <c r="Z14" t="n">
-        <v>79842.0</v>
+        <v>79842</v>
       </c>
       <c r="AA14" t="n">
-        <v>72361.0</v>
+        <v>72361</v>
       </c>
       <c r="AB14" t="n">
-        <v>96034.0</v>
+        <v>96034</v>
       </c>
       <c r="AC14" t="n">
-        <v>40031.0</v>
+        <v>40031</v>
       </c>
       <c r="AD14" t="n">
-        <v>80782.0</v>
+        <v>80782</v>
       </c>
       <c r="AE14" t="n">
-        <v>68505.0</v>
+        <v>68505</v>
       </c>
       <c r="AF14" t="n">
-        <v>62609.0</v>
+        <v>62609</v>
       </c>
       <c r="AG14" t="n">
-        <v>107999.0</v>
+        <v>107999</v>
       </c>
       <c r="AH14" t="n">
-        <v>164711.0</v>
+        <v>164711</v>
       </c>
       <c r="AI14" t="n">
-        <v>88005.0</v>
+        <v>88005</v>
       </c>
       <c r="AJ14" t="n">
-        <v>37397.0</v>
+        <v>37397</v>
       </c>
       <c r="AK14" t="n">
-        <v>55725.0</v>
+        <v>55725</v>
       </c>
       <c r="AL14" t="n">
-        <v>45446.0</v>
+        <v>45446</v>
       </c>
       <c r="AM14" t="n">
-        <v>164366.0</v>
+        <v>164366</v>
       </c>
       <c r="AN14" t="n">
-        <v>46839.0</v>
+        <v>46839</v>
       </c>
       <c r="AO14" t="n">
-        <v>507895.0</v>
+        <v>507895</v>
       </c>
       <c r="AP14" t="n">
-        <v>122008.0</v>
+        <v>122008</v>
       </c>
       <c r="AQ14" t="n">
-        <v>622903.0</v>
+        <v>622903</v>
       </c>
       <c r="AR14" t="n">
-        <v>236960.0</v>
+        <v>236960</v>
       </c>
       <c r="AS14" t="n">
-        <v>12157.0</v>
+        <v>12157</v>
       </c>
       <c r="AT14" t="n">
-        <v>29117.0</v>
+        <v>29117</v>
       </c>
       <c r="AU14" t="n">
-        <v>81006.0</v>
+        <v>81006</v>
       </c>
       <c r="AV14" t="n">
-        <v>17261.0</v>
+        <v>17261</v>
       </c>
       <c r="AW14" t="n">
-        <v>151663.0</v>
+        <v>151663</v>
       </c>
       <c r="AX14" t="n">
-        <v>22566.0</v>
+        <v>22566</v>
       </c>
       <c r="AY14" t="n">
-        <v>31112.0</v>
+        <v>31112</v>
       </c>
       <c r="AZ14" t="n">
-        <v>143249.0</v>
+        <v>143249</v>
       </c>
       <c r="BA14" t="n">
-        <v>80788.0</v>
+        <v>80788</v>
       </c>
       <c r="BB14" t="n">
-        <v>398032.0</v>
+        <v>398032</v>
       </c>
       <c r="BC14" t="n">
-        <v>340359.0</v>
+        <v>340359</v>
       </c>
       <c r="BD14" t="n">
-        <v>124627.0</v>
+        <v>124627</v>
       </c>
       <c r="BE14" t="n">
-        <v>55932.0</v>
+        <v>55932</v>
       </c>
       <c r="BF14" t="n">
-        <v>66427.0</v>
+        <v>66427</v>
       </c>
       <c r="BG14" t="n">
-        <v>31358.0</v>
+        <v>31358</v>
       </c>
       <c r="BH14" t="n">
-        <v>143082.0</v>
+        <v>143082</v>
       </c>
       <c r="BI14" t="n">
-        <v>24822.0</v>
+        <v>24822</v>
       </c>
       <c r="BJ14" t="n">
-        <v>522385.0</v>
+        <v>522385</v>
       </c>
       <c r="BK14" t="n">
-        <v>193081.0</v>
+        <v>193081</v>
       </c>
       <c r="BL14" t="n">
-        <v>63272.0</v>
+        <v>63272</v>
       </c>
       <c r="BM14" t="n">
-        <v>114794.0</v>
+        <v>114794</v>
       </c>
       <c r="BN14" t="n">
-        <v>125360.0</v>
+        <v>125360</v>
       </c>
       <c r="BO14" t="n">
-        <v>24702.0</v>
+        <v>24702</v>
       </c>
       <c r="BP14" t="n">
-        <v>110543.0</v>
+        <v>110543</v>
       </c>
       <c r="BQ14" t="n">
-        <v>44434.0</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="n">
-        <v>6574644.0</v>
+        <v>6574644</v>
       </c>
       <c r="C15" t="n">
-        <v>6828049.0</v>
+        <v>6828049</v>
       </c>
       <c r="D15" t="n">
-        <v>975753.0</v>
+        <v>975753</v>
       </c>
       <c r="E15" t="n">
-        <v>147651.0</v>
+        <v>147651</v>
       </c>
       <c r="F15" t="n">
-        <v>67183.0</v>
+        <v>67183</v>
       </c>
       <c r="G15" t="n">
-        <v>44473.0</v>
+        <v>44473</v>
       </c>
       <c r="H15" t="n">
-        <v>33429.0</v>
+        <v>33429</v>
       </c>
       <c r="I15" t="n">
-        <v>654324.0</v>
+        <v>654324</v>
       </c>
       <c r="J15" t="n">
-        <v>254776.0</v>
+        <v>254776</v>
       </c>
       <c r="K15" t="n">
-        <v>1165242.0</v>
+        <v>1165242</v>
       </c>
       <c r="L15" t="n">
-        <v>161280.0</v>
+        <v>161280</v>
       </c>
       <c r="M15" t="n">
-        <v>19340.0</v>
+        <v>19340</v>
       </c>
       <c r="N15" t="n">
-        <v>608183.0</v>
+        <v>608183</v>
       </c>
       <c r="O15" t="n">
-        <v>1749759.0</v>
+        <v>1749759</v>
       </c>
       <c r="P15" t="n">
-        <v>577823.0</v>
+        <v>577823</v>
       </c>
       <c r="Q15" t="n">
-        <v>458959.0</v>
+        <v>458959</v>
       </c>
       <c r="R15" t="n">
-        <v>203335.0</v>
+        <v>203335</v>
       </c>
       <c r="S15" t="n">
-        <v>208088.0</v>
+        <v>208088</v>
       </c>
       <c r="T15" t="n">
-        <v>24026.0</v>
+        <v>24026</v>
       </c>
       <c r="U15" t="n">
-        <v>81046.0</v>
+        <v>81046</v>
       </c>
       <c r="V15" t="n">
-        <v>97977.0</v>
+        <v>97977</v>
       </c>
       <c r="W15" t="n">
-        <v>97111.0</v>
+        <v>97111</v>
       </c>
       <c r="X15" t="n">
-        <v>177960.0</v>
+        <v>177960</v>
       </c>
       <c r="Y15" t="n">
-        <v>102263.0</v>
+        <v>102263</v>
       </c>
       <c r="Z15" t="n">
-        <v>466290.0</v>
+        <v>466290</v>
       </c>
       <c r="AA15" t="n">
-        <v>658472.0</v>
+        <v>658472</v>
       </c>
       <c r="AB15" t="n">
-        <v>137795.0</v>
+        <v>137795</v>
       </c>
       <c r="AC15" t="n">
-        <v>118843.0</v>
+        <v>118843</v>
       </c>
       <c r="AD15" t="n">
-        <v>788453.0</v>
+        <v>788453</v>
       </c>
       <c r="AE15" t="n">
-        <v>182672.0</v>
+        <v>182672</v>
       </c>
       <c r="AF15" t="n">
-        <v>261165.0</v>
+        <v>261165</v>
       </c>
       <c r="AG15" t="n">
-        <v>471825.0</v>
+        <v>471825</v>
       </c>
       <c r="AH15" t="n">
-        <v>198760.0</v>
+        <v>198760</v>
       </c>
       <c r="AI15" t="n">
-        <v>348283.0</v>
+        <v>348283</v>
       </c>
       <c r="AJ15" t="n">
-        <v>111500.0</v>
+        <v>111500</v>
       </c>
       <c r="AK15" t="n">
-        <v>863869.0</v>
+        <v>863869</v>
       </c>
       <c r="AL15" t="n">
-        <v>521786.0</v>
+        <v>521786</v>
       </c>
       <c r="AM15" t="n">
-        <v>146361.0</v>
+        <v>146361</v>
       </c>
       <c r="AN15" t="n">
-        <v>579412.0</v>
+        <v>579412</v>
       </c>
       <c r="AO15" t="n">
-        <v>8099182.0</v>
+        <v>8099182</v>
       </c>
       <c r="AP15" t="n">
-        <v>2828508.0</v>
+        <v>2828508</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.5257223E7</v>
+        <v>15257223</v>
       </c>
       <c r="AR15" t="n">
-        <v>3469904.0</v>
+        <v>3469904</v>
       </c>
       <c r="AS15" t="n">
-        <v>62911.0</v>
+        <v>62911</v>
       </c>
       <c r="AT15" t="n">
-        <v>68374.0</v>
+        <v>68374</v>
       </c>
       <c r="AU15" t="n">
-        <v>775684.0</v>
+        <v>775684</v>
       </c>
       <c r="AV15" t="n">
-        <v>391430.0</v>
+        <v>391430</v>
       </c>
       <c r="AW15" t="n">
-        <v>4545355.0</v>
+        <v>4545355</v>
       </c>
       <c r="AX15" t="n">
-        <v>175590.0</v>
+        <v>175590</v>
       </c>
       <c r="AY15" t="n">
-        <v>168110.0</v>
+        <v>168110</v>
       </c>
       <c r="AZ15" t="n">
-        <v>225183.0</v>
+        <v>225183</v>
       </c>
       <c r="BA15" t="n">
-        <v>665694.0</v>
+        <v>665694</v>
       </c>
       <c r="BB15" t="n">
-        <v>1114181.0</v>
+        <v>1114181</v>
       </c>
       <c r="BC15" t="n">
-        <v>345303.0</v>
+        <v>345303</v>
       </c>
       <c r="BD15" t="n">
-        <v>1584704.0</v>
+        <v>1584704</v>
       </c>
       <c r="BE15" t="n">
-        <v>570506.0</v>
+        <v>570506</v>
       </c>
       <c r="BF15" t="n">
-        <v>431109.0</v>
+        <v>431109</v>
       </c>
       <c r="BG15" t="n">
-        <v>307250.0</v>
+        <v>307250</v>
       </c>
       <c r="BH15" t="n">
-        <v>3785349.0</v>
+        <v>3785349</v>
       </c>
       <c r="BI15" t="n">
-        <v>790479.0</v>
+        <v>790479</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5252371.0</v>
+        <v>5252371</v>
       </c>
       <c r="BK15" t="n">
-        <v>3863066.0</v>
+        <v>3863066</v>
       </c>
       <c r="BL15" t="n">
-        <v>2111537.0</v>
+        <v>2111537</v>
       </c>
       <c r="BM15" t="n">
-        <v>1585717.0</v>
+        <v>1585717</v>
       </c>
       <c r="BN15" t="n">
-        <v>2349784.0</v>
+        <v>2349784</v>
       </c>
       <c r="BO15" t="n">
-        <v>974230.0</v>
+        <v>974230</v>
       </c>
       <c r="BP15" t="n">
-        <v>3751438.0</v>
+        <v>3751438</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6841825.0</v>
+        <v>6841825</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2011.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2011.xlsx
@@ -658,7 +658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2011.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2011.xlsx
@@ -3,343 +3,340 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t xml:space="preserve">0192
+    <t>0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t xml:space="preserve">0280
+    <t>0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t xml:space="preserve">0580
+    <t>0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">0680
+    <t>0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t xml:space="preserve">0791
+    <t>0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t xml:space="preserve">0792
+    <t>0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">1091
+    <t>1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t xml:space="preserve">1092
+    <t>1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t xml:space="preserve">1093
+    <t>1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t xml:space="preserve">1100
+    <t>1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t xml:space="preserve">1200
+    <t>1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t xml:space="preserve">1300
+    <t>1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t xml:space="preserve">1400
+    <t>1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t xml:space="preserve">1500
+    <t>1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t xml:space="preserve">1600
+    <t>1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">1700
+    <t>1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t xml:space="preserve">1800
+    <t>1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t xml:space="preserve">1991
+    <t>1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t xml:space="preserve">1992
+    <t>1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t xml:space="preserve">2091
+    <t>2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t xml:space="preserve">2092
+    <t>2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t xml:space="preserve">2093
+    <t>2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t xml:space="preserve">2100
+    <t>2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2200
+    <t>2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t xml:space="preserve">2300
+    <t>2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2491
+    <t>2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t xml:space="preserve">2492
+    <t>2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t xml:space="preserve">2500
+    <t>2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">2600
+    <t>2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2700
+    <t>2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t xml:space="preserve">2800
+    <t>2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2991
+    <t>2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t xml:space="preserve">2992
+    <t>2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3000
+    <t>3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3180
+    <t>3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t xml:space="preserve">3300
+    <t>3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">3500
+    <t>3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t xml:space="preserve">3680
+    <t>3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t xml:space="preserve">4180
+    <t>4180
 Construção</t>
   </si>
   <si>
-    <t xml:space="preserve">4500
+    <t>4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t xml:space="preserve">4680
+    <t>4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">4900
+    <t>4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t xml:space="preserve">5000
+    <t>5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t xml:space="preserve">5100
+    <t>5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t xml:space="preserve">5280
+    <t>5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t xml:space="preserve">5500
+    <t>5500
 Alojamento</t>
   </si>
   <si>
-    <t xml:space="preserve">5600
+    <t>5600
 Alimentação</t>
   </si>
   <si>
-    <t xml:space="preserve">5800
+    <t>5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t xml:space="preserve">5980
+    <t>5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">6100
+    <t>6100
 Telecomunicações</t>
   </si>
   <si>
-    <t xml:space="preserve">6280
+    <t>6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t xml:space="preserve">6480
+    <t>6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t xml:space="preserve">6800
+    <t>6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t xml:space="preserve">6980
+    <t>6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t xml:space="preserve">7180
+    <t>7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t xml:space="preserve">7380
+    <t>7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t xml:space="preserve">7700
+    <t>7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t xml:space="preserve">7880
+    <t>7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t xml:space="preserve">8000
+    <t>8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t xml:space="preserve">8400
+    <t>8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t xml:space="preserve">8591
+    <t>8591
 Educação pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8592
+    <t>8592
 Educação privada</t>
   </si>
   <si>
-    <t xml:space="preserve">8691
+    <t>8691
 Saúde pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8692
+    <t>8692
 Saúde privada</t>
   </si>
   <si>
-    <t xml:space="preserve">9080
+    <t>9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t xml:space="preserve">9480
+    <t>9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t xml:space="preserve">9700
+    <t>9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remunerações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais efetivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência oficial /FGTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais imputadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros impostos sobre a produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros subsídios à produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor da produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fator trabalho (ocupações)</t>
+    <t>Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t>Remunerações</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t>Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t>Previdência privada</t>
+  </si>
+  <si>
+    <t>Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t>Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t>Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t>Valor da produção</t>
+  </si>
+  <si>
+    <t>Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -368,3435 +365,3151 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>124400</v>
+        <v>124400.0</v>
       </c>
       <c r="C2" t="n">
-        <v>48345</v>
+        <v>48345.0</v>
       </c>
       <c r="D2" t="n">
-        <v>17279</v>
+        <v>17279.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7399</v>
+        <v>7399.0</v>
       </c>
       <c r="F2" t="n">
-        <v>98959</v>
+        <v>98959.0</v>
       </c>
       <c r="G2" t="n">
-        <v>51912</v>
+        <v>51912.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4297</v>
+        <v>4297.0</v>
       </c>
       <c r="I2" t="n">
-        <v>25582</v>
+        <v>25582.0</v>
       </c>
       <c r="J2" t="n">
-        <v>13186</v>
+        <v>13186.0</v>
       </c>
       <c r="K2" t="n">
-        <v>31559</v>
+        <v>31559.0</v>
       </c>
       <c r="L2" t="n">
-        <v>18886</v>
+        <v>18886.0</v>
       </c>
       <c r="M2" t="n">
-        <v>3796</v>
+        <v>3796.0</v>
       </c>
       <c r="N2" t="n">
-        <v>11756</v>
+        <v>11756.0</v>
       </c>
       <c r="O2" t="n">
-        <v>25870</v>
+        <v>25870.0</v>
       </c>
       <c r="P2" t="n">
-        <v>11413</v>
+        <v>11413.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8866</v>
+        <v>8866.0</v>
       </c>
       <c r="R2" t="n">
-        <v>16861</v>
+        <v>16861.0</v>
       </c>
       <c r="S2" t="n">
-        <v>8685</v>
+        <v>8685.0</v>
       </c>
       <c r="T2" t="n">
-        <v>-10202</v>
+        <v>-10202.0</v>
       </c>
       <c r="U2" t="n">
-        <v>4699</v>
+        <v>4699.0</v>
       </c>
       <c r="V2" t="n">
-        <v>14719</v>
+        <v>14719.0</v>
       </c>
       <c r="W2" t="n">
-        <v>10413</v>
+        <v>10413.0</v>
       </c>
       <c r="X2" t="n">
-        <v>7185</v>
+        <v>7185.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19812</v>
+        <v>19812.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>22858</v>
+        <v>22858.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>25581</v>
+        <v>25581.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>20702</v>
+        <v>20702.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>7995</v>
+        <v>7995.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>32518</v>
+        <v>32518.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>15709</v>
+        <v>15709.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>16216</v>
+        <v>16216.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>34534</v>
+        <v>34534.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>32552</v>
+        <v>32552.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>28311</v>
+        <v>28311.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10881</v>
+        <v>10881.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>26051</v>
+        <v>26051.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>18710</v>
+        <v>18710.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>72152</v>
+        <v>72152.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>27067</v>
+        <v>27067.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>233544</v>
+        <v>233544.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>73946</v>
+        <v>73946.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>404296</v>
+        <v>404296.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>107085</v>
+        <v>107085.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>4030</v>
+        <v>4030.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>6507</v>
+        <v>6507.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>47935</v>
+        <v>47935.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>9600</v>
+        <v>9600.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>72754</v>
+        <v>72754.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>10395</v>
+        <v>10395.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>14397</v>
+        <v>14397.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>57074</v>
+        <v>57074.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>55140</v>
+        <v>55140.0</v>
       </c>
       <c r="BB2" t="n">
-        <v>239426</v>
+        <v>239426.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>311380</v>
+        <v>311380.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>87258</v>
+        <v>87258.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>35632</v>
+        <v>35632.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>22340</v>
+        <v>22340.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>20396</v>
+        <v>20396.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>98016</v>
+        <v>98016.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>20022</v>
+        <v>20022.0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>369696</v>
+        <v>369696.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>154661</v>
+        <v>154661.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>42023</v>
+        <v>42023.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>73702</v>
+        <v>73702.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>70520</v>
+        <v>70520.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>14303</v>
+        <v>14303.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>52435</v>
+        <v>52435.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>44434</v>
+        <v>44434.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>22220</v>
+        <v>22220.0</v>
       </c>
       <c r="C3" t="n">
-        <v>15042</v>
+        <v>15042.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2128</v>
+        <v>2128.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3461</v>
+        <v>3461.0</v>
       </c>
       <c r="F3" t="n">
-        <v>14807</v>
+        <v>14807.0</v>
       </c>
       <c r="G3" t="n">
-        <v>5555</v>
+        <v>5555.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1933</v>
+        <v>1933.0</v>
       </c>
       <c r="I3" t="n">
-        <v>18006</v>
+        <v>18006.0</v>
       </c>
       <c r="J3" t="n">
-        <v>8241</v>
+        <v>8241.0</v>
       </c>
       <c r="K3" t="n">
-        <v>19447</v>
+        <v>19447.0</v>
       </c>
       <c r="L3" t="n">
-        <v>6047</v>
+        <v>6047.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1222</v>
+        <v>1222.0</v>
       </c>
       <c r="N3" t="n">
-        <v>8654</v>
+        <v>8654.0</v>
       </c>
       <c r="O3" t="n">
-        <v>13378</v>
+        <v>13378.0</v>
       </c>
       <c r="P3" t="n">
-        <v>8579</v>
+        <v>8579.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5237</v>
+        <v>5237.0</v>
       </c>
       <c r="R3" t="n">
-        <v>8585</v>
+        <v>8585.0</v>
       </c>
       <c r="S3" t="n">
-        <v>4563</v>
+        <v>4563.0</v>
       </c>
       <c r="T3" t="n">
-        <v>4509</v>
+        <v>4509.0</v>
       </c>
       <c r="U3" t="n">
-        <v>2680</v>
+        <v>2680.0</v>
       </c>
       <c r="V3" t="n">
-        <v>7982</v>
+        <v>7982.0</v>
       </c>
       <c r="W3" t="n">
-        <v>6572</v>
+        <v>6572.0</v>
       </c>
       <c r="X3" t="n">
-        <v>3986</v>
+        <v>3986.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>7272</v>
+        <v>7272.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>15410</v>
+        <v>15410.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>13885</v>
+        <v>13885.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>9959</v>
+        <v>9959.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>5079</v>
+        <v>5079.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>18808</v>
+        <v>18808.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>9354</v>
+        <v>9354.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>11148</v>
+        <v>11148.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>22501</v>
+        <v>22501.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>17067</v>
+        <v>17067.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>17826</v>
+        <v>17826.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6913</v>
+        <v>6913.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>10955</v>
+        <v>10955.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>8681</v>
+        <v>8681.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>11551</v>
+        <v>11551.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>11341</v>
+        <v>11341.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>98486</v>
+        <v>98486.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>31534</v>
+        <v>31534.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>191365</v>
+        <v>191365.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>49777</v>
+        <v>49777.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>3085</v>
+        <v>3085.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>6155</v>
+        <v>6155.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>27385</v>
+        <v>27385.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>5788</v>
+        <v>5788.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>29283</v>
+        <v>29283.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>6303</v>
+        <v>6303.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>7709</v>
+        <v>7709.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12542</v>
+        <v>12542.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>29388</v>
+        <v>29388.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>98204</v>
+        <v>98204.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>4902</v>
+        <v>4902.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>35198</v>
+        <v>35198.0</v>
       </c>
       <c r="BE3" t="n">
-        <v>18262</v>
+        <v>18262.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>7753</v>
+        <v>7753.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>7127</v>
+        <v>7127.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>64835</v>
+        <v>64835.0</v>
       </c>
       <c r="BI3" t="n">
-        <v>17032</v>
+        <v>17032.0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>323263</v>
+        <v>323263.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>147804</v>
+        <v>147804.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>37594</v>
+        <v>37594.0</v>
       </c>
       <c r="BM3" t="n">
-        <v>70059</v>
+        <v>70059.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>41952</v>
+        <v>41952.0</v>
       </c>
       <c r="BO3" t="n">
-        <v>7578</v>
+        <v>7578.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>31400</v>
+        <v>31400.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>44434</v>
+        <v>44434.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>18815</v>
+        <v>18815.0</v>
       </c>
       <c r="C4" t="n">
-        <v>13036</v>
+        <v>13036.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1774</v>
+        <v>1774.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2729</v>
+        <v>2729.0</v>
       </c>
       <c r="F4" t="n">
-        <v>10561</v>
+        <v>10561.0</v>
       </c>
       <c r="G4" t="n">
-        <v>4072</v>
+        <v>4072.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1496</v>
+        <v>1496.0</v>
       </c>
       <c r="I4" t="n">
-        <v>13769</v>
+        <v>13769.0</v>
       </c>
       <c r="J4" t="n">
-        <v>5904</v>
+        <v>5904.0</v>
       </c>
       <c r="K4" t="n">
-        <v>15226</v>
+        <v>15226.0</v>
       </c>
       <c r="L4" t="n">
-        <v>4570</v>
+        <v>4570.0</v>
       </c>
       <c r="M4" t="n">
-        <v>924</v>
+        <v>924.0</v>
       </c>
       <c r="N4" t="n">
-        <v>6884</v>
+        <v>6884.0</v>
       </c>
       <c r="O4" t="n">
-        <v>10710</v>
+        <v>10710.0</v>
       </c>
       <c r="P4" t="n">
-        <v>6808</v>
+        <v>6808.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4235</v>
+        <v>4235.0</v>
       </c>
       <c r="R4" t="n">
-        <v>6508</v>
+        <v>6508.0</v>
       </c>
       <c r="S4" t="n">
-        <v>3593</v>
+        <v>3593.0</v>
       </c>
       <c r="T4" t="n">
-        <v>3105</v>
+        <v>3105.0</v>
       </c>
       <c r="U4" t="n">
-        <v>2071</v>
+        <v>2071.0</v>
       </c>
       <c r="V4" t="n">
-        <v>5942</v>
+        <v>5942.0</v>
       </c>
       <c r="W4" t="n">
-        <v>4888</v>
+        <v>4888.0</v>
       </c>
       <c r="X4" t="n">
-        <v>3181</v>
+        <v>3181.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>5525</v>
+        <v>5525.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>11783</v>
+        <v>11783.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>10937</v>
+        <v>10937.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>7493</v>
+        <v>7493.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>3903</v>
+        <v>3903.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>14644</v>
+        <v>14644.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>7150</v>
+        <v>7150.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>8558</v>
+        <v>8558.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>17125</v>
+        <v>17125.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>12947</v>
+        <v>12947.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>13642</v>
+        <v>13642.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5302</v>
+        <v>5302.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>8614</v>
+        <v>8614.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>6981</v>
+        <v>6981.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>8499</v>
+        <v>8499.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>8802</v>
+        <v>8802.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>79688</v>
+        <v>79688.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>25537</v>
+        <v>25537.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>152388</v>
+        <v>152388.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>39801</v>
+        <v>39801.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2398</v>
+        <v>2398.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>4679</v>
+        <v>4679.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>21041</v>
+        <v>21041.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>4699</v>
+        <v>4699.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>24847</v>
+        <v>24847.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>4902</v>
+        <v>4902.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>5953</v>
+        <v>5953.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9587</v>
+        <v>9587.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>22832</v>
+        <v>22832.0</v>
       </c>
       <c r="BB4" t="n">
-        <v>75065</v>
+        <v>75065.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>3762</v>
+        <v>3762.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>28175</v>
+        <v>28175.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>14345</v>
+        <v>14345.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>6267</v>
+        <v>6267.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>5774</v>
+        <v>5774.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>50586</v>
+        <v>50586.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>13225</v>
+        <v>13225.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>228688</v>
+        <v>228688.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>126654</v>
+        <v>126654.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>31156</v>
+        <v>31156.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>58053</v>
+        <v>58053.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>34919</v>
+        <v>34919.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>6688</v>
+        <v>6688.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>26979</v>
+        <v>26979.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>42261</v>
+        <v>42261.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>3405</v>
+        <v>3405.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2006</v>
+        <v>2006.0</v>
       </c>
       <c r="D5" t="n">
-        <v>354</v>
+        <v>354.0</v>
       </c>
       <c r="E5" t="n">
-        <v>732</v>
+        <v>732.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4246</v>
+        <v>4246.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1483</v>
+        <v>1483.0</v>
       </c>
       <c r="H5" t="n">
-        <v>437</v>
+        <v>437.0</v>
       </c>
       <c r="I5" t="n">
-        <v>4237</v>
+        <v>4237.0</v>
       </c>
       <c r="J5" t="n">
-        <v>2337</v>
+        <v>2337.0</v>
       </c>
       <c r="K5" t="n">
-        <v>4221</v>
+        <v>4221.0</v>
       </c>
       <c r="L5" t="n">
-        <v>1477</v>
+        <v>1477.0</v>
       </c>
       <c r="M5" t="n">
-        <v>298</v>
+        <v>298.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1770</v>
+        <v>1770.0</v>
       </c>
       <c r="O5" t="n">
-        <v>2668</v>
+        <v>2668.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1771</v>
+        <v>1771.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1002</v>
+        <v>1002.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2077</v>
+        <v>2077.0</v>
       </c>
       <c r="S5" t="n">
-        <v>970</v>
+        <v>970.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1404</v>
+        <v>1404.0</v>
       </c>
       <c r="U5" t="n">
-        <v>609</v>
+        <v>609.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2040</v>
+        <v>2040.0</v>
       </c>
       <c r="W5" t="n">
-        <v>1684</v>
+        <v>1684.0</v>
       </c>
       <c r="X5" t="n">
-        <v>805</v>
+        <v>805.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1747</v>
+        <v>1747.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>3627</v>
+        <v>3627.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2948</v>
+        <v>2948.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2466</v>
+        <v>2466.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1176</v>
+        <v>1176.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>4164</v>
+        <v>4164.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>2204</v>
+        <v>2204.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2590</v>
+        <v>2590.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5376</v>
+        <v>5376.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>4120</v>
+        <v>4120.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>4184</v>
+        <v>4184.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1611</v>
+        <v>1611.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>2341</v>
+        <v>2341.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1700</v>
+        <v>1700.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>3052</v>
+        <v>3052.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>2539</v>
+        <v>2539.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>18798</v>
+        <v>18798.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>5997</v>
+        <v>5997.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>38977</v>
+        <v>38977.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>9976</v>
+        <v>9976.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>687</v>
+        <v>687.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1476</v>
+        <v>1476.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>6344</v>
+        <v>6344.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1089</v>
+        <v>1089.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>4436</v>
+        <v>4436.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1401</v>
+        <v>1401.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1756</v>
+        <v>1756.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2955</v>
+        <v>2955.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>6556</v>
+        <v>6556.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>23139</v>
+        <v>23139.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1140</v>
+        <v>1140.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>7023</v>
+        <v>7023.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>3917</v>
+        <v>3917.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>1486</v>
+        <v>1486.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>1353</v>
+        <v>1353.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>14249</v>
+        <v>14249.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>3807</v>
+        <v>3807.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>46618</v>
+        <v>46618.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>18548</v>
+        <v>18548.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>6438</v>
+        <v>6438.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>7926</v>
+        <v>7926.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>7033</v>
+        <v>7033.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>890</v>
+        <v>890.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>4421</v>
+        <v>4421.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2173</v>
+        <v>2173.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>3404</v>
+        <v>3404.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2005</v>
+        <v>2005.0</v>
       </c>
       <c r="D6" t="n">
-        <v>353</v>
+        <v>353.0</v>
       </c>
       <c r="E6" t="n">
-        <v>694</v>
+        <v>694.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3265</v>
+        <v>3265.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1256</v>
+        <v>1256.0</v>
       </c>
       <c r="H6" t="n">
-        <v>393</v>
+        <v>393.0</v>
       </c>
       <c r="I6" t="n">
-        <v>4122</v>
+        <v>4122.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2302</v>
+        <v>2302.0</v>
       </c>
       <c r="K6" t="n">
-        <v>4054</v>
+        <v>4054.0</v>
       </c>
       <c r="L6" t="n">
-        <v>1367</v>
+        <v>1367.0</v>
       </c>
       <c r="M6" t="n">
-        <v>282</v>
+        <v>282.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1759</v>
+        <v>1759.0</v>
       </c>
       <c r="O6" t="n">
-        <v>2654</v>
+        <v>2654.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1756</v>
+        <v>1756.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>977</v>
+        <v>977.0</v>
       </c>
       <c r="R6" t="n">
-        <v>1951</v>
+        <v>1951.0</v>
       </c>
       <c r="S6" t="n">
-        <v>930</v>
+        <v>930.0</v>
       </c>
       <c r="T6" t="n">
-        <v>907</v>
+        <v>907.0</v>
       </c>
       <c r="U6" t="n">
-        <v>586</v>
+        <v>586.0</v>
       </c>
       <c r="V6" t="n">
-        <v>1780</v>
+        <v>1780.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1480</v>
+        <v>1480.0</v>
       </c>
       <c r="X6" t="n">
-        <v>765</v>
+        <v>765.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1628</v>
+        <v>1628.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>3478</v>
+        <v>3478.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>2869</v>
+        <v>2869.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2314</v>
+        <v>2314.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1134</v>
+        <v>1134.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>4015</v>
+        <v>4015.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>2099</v>
+        <v>2099.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>2455</v>
+        <v>2455.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5160</v>
+        <v>5160.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>3831</v>
+        <v>3831.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>4055</v>
+        <v>4055.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1538</v>
+        <v>1538.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>2280</v>
+        <v>2280.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1635</v>
+        <v>1635.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>2446</v>
+        <v>2446.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>2471</v>
+        <v>2471.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>18256</v>
+        <v>18256.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>5937</v>
+        <v>5937.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>38258</v>
+        <v>38258.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>9741</v>
+        <v>9741.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>670</v>
+        <v>670.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1393</v>
+        <v>1393.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>5878</v>
+        <v>5878.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>1064</v>
+        <v>1064.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>4389</v>
+        <v>4389.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1308</v>
+        <v>1308.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>1613</v>
+        <v>1613.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2645</v>
+        <v>2645.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>6240</v>
+        <v>6240.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>17114</v>
+        <v>17114.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1087</v>
+        <v>1087.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>6602</v>
+        <v>6602.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>3839</v>
+        <v>3839.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>1466</v>
+        <v>1466.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>1326</v>
+        <v>1326.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>14000</v>
+        <v>14000.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>3749</v>
+        <v>3749.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>46373</v>
+        <v>46373.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>18499</v>
+        <v>18499.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>6087</v>
+        <v>6087.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>7925</v>
+        <v>7925.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>6845</v>
+        <v>6845.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>875</v>
+        <v>875.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>4315</v>
+        <v>4315.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2173</v>
+        <v>2173.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="F7" t="n">
-        <v>981</v>
+        <v>981.0</v>
       </c>
       <c r="G7" t="n">
-        <v>227</v>
+        <v>227.0</v>
       </c>
       <c r="H7" t="n">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="I7" t="n">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="K7" t="n">
-        <v>167</v>
+        <v>167.0</v>
       </c>
       <c r="L7" t="n">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="M7" t="n">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="O7" t="n">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="P7" t="n">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="R7" t="n">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="S7" t="n">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="T7" t="n">
-        <v>497</v>
+        <v>497.0</v>
       </c>
       <c r="U7" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="V7" t="n">
-        <v>260</v>
+        <v>260.0</v>
       </c>
       <c r="W7" t="n">
-        <v>204</v>
+        <v>204.0</v>
       </c>
       <c r="X7" t="n">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>149</v>
+        <v>149.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>149</v>
+        <v>149.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>135</v>
+        <v>135.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>216</v>
+        <v>216.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>289</v>
+        <v>289.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>606</v>
+        <v>606.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>542</v>
+        <v>542.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>719</v>
+        <v>719.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>235</v>
+        <v>235.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>466</v>
+        <v>466.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>143</v>
+        <v>143.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>310</v>
+        <v>310.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>316</v>
+        <v>316.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>6025</v>
+        <v>6025.0</v>
       </c>
       <c r="BC7" t="n">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>421</v>
+        <v>421.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="BH7" t="n">
-        <v>249</v>
+        <v>249.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>245</v>
+        <v>245.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>351</v>
+        <v>351.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>188</v>
+        <v>188.0</v>
       </c>
       <c r="BO7" t="n">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>106</v>
+        <v>106.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>47957</v>
+        <v>47957.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>2602</v>
+        <v>2602.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>4080</v>
+        <v>4080.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>106437</v>
+        <v>106437.0</v>
       </c>
       <c r="C9" t="n">
-        <v>33049</v>
+        <v>33049.0</v>
       </c>
       <c r="D9" t="n">
-        <v>15101</v>
+        <v>15101.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3864</v>
+        <v>3864.0</v>
       </c>
       <c r="F9" t="n">
-        <v>83325</v>
+        <v>83325.0</v>
       </c>
       <c r="G9" t="n">
-        <v>45945</v>
+        <v>45945.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2269</v>
+        <v>2269.0</v>
       </c>
       <c r="I9" t="n">
-        <v>6518</v>
+        <v>6518.0</v>
       </c>
       <c r="J9" t="n">
-        <v>4458</v>
+        <v>4458.0</v>
       </c>
       <c r="K9" t="n">
-        <v>10930</v>
+        <v>10930.0</v>
       </c>
       <c r="L9" t="n">
-        <v>12330</v>
+        <v>12330.0</v>
       </c>
       <c r="M9" t="n">
-        <v>2496</v>
+        <v>2496.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2792</v>
+        <v>2792.0</v>
       </c>
       <c r="O9" t="n">
-        <v>12018</v>
+        <v>12018.0</v>
       </c>
       <c r="P9" t="n">
-        <v>2524</v>
+        <v>2524.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3417</v>
+        <v>3417.0</v>
       </c>
       <c r="R9" t="n">
-        <v>7933</v>
+        <v>7933.0</v>
       </c>
       <c r="S9" t="n">
-        <v>3895</v>
+        <v>3895.0</v>
       </c>
       <c r="T9" t="n">
-        <v>-15297</v>
+        <v>-15297.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1995</v>
+        <v>1995.0</v>
       </c>
       <c r="V9" t="n">
-        <v>6128</v>
+        <v>6128.0</v>
       </c>
       <c r="W9" t="n">
-        <v>3496</v>
+        <v>3496.0</v>
       </c>
       <c r="X9" t="n">
-        <v>3016</v>
+        <v>3016.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>12235</v>
+        <v>12235.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>6881</v>
+        <v>6881.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>11212</v>
+        <v>11212.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>10166</v>
+        <v>10166.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>2684</v>
+        <v>2684.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>13041</v>
+        <v>13041.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>5725</v>
+        <v>5725.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>4634</v>
+        <v>4634.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>11291</v>
+        <v>11291.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>14666</v>
+        <v>14666.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>9912</v>
+        <v>9912.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3809</v>
+        <v>3809.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>14699</v>
+        <v>14699.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>9784</v>
+        <v>9784.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>59806</v>
+        <v>59806.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>15298</v>
+        <v>15298.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>132414</v>
+        <v>132414.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>41530</v>
+        <v>41530.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>207328</v>
+        <v>207328.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>57110</v>
+        <v>57110.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>749</v>
+        <v>749.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>19490</v>
+        <v>19490.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>3619</v>
+        <v>3619.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>42691</v>
+        <v>42691.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>3876</v>
+        <v>3876.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>5812</v>
+        <v>5812.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41023</v>
+        <v>41023.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>24882</v>
+        <v>24882.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>136706</v>
+        <v>136706.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>306263</v>
+        <v>306263.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>50878</v>
+        <v>50878.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>16931</v>
+        <v>16931.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>14342</v>
+        <v>14342.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>13114</v>
+        <v>13114.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>31319</v>
+        <v>31319.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>2478</v>
+        <v>2478.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>46349</v>
+        <v>46349.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>6854</v>
+        <v>6854.0</v>
       </c>
       <c r="BL9" t="n">
-        <v>3735</v>
+        <v>3735.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>3643</v>
+        <v>3643.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>27548</v>
+        <v>27548.0</v>
       </c>
       <c r="BO9" t="n">
-        <v>6598</v>
+        <v>6598.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>20481</v>
+        <v>20481.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="n">
-        <v>56929</v>
+        <v>56929.0</v>
       </c>
       <c r="C10" t="n">
-        <v>24605</v>
+        <v>24605.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7416</v>
+        <v>7416.0</v>
       </c>
       <c r="E10" t="n">
-        <v>275</v>
+        <v>275.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>241</v>
+        <v>241.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>2611</v>
+        <v>2611.0</v>
       </c>
       <c r="L10" t="n">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>721</v>
+        <v>721.0</v>
       </c>
       <c r="O10" t="n">
-        <v>6581</v>
+        <v>6581.0</v>
       </c>
       <c r="P10" t="n">
-        <v>589</v>
+        <v>589.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1352</v>
+        <v>1352.0</v>
       </c>
       <c r="R10" t="n">
-        <v>199</v>
+        <v>199.0</v>
       </c>
       <c r="S10" t="n">
-        <v>485</v>
+        <v>485.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>134</v>
+        <v>134.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>221</v>
+        <v>221.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>665</v>
+        <v>665.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1700</v>
+        <v>1700.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1517</v>
+        <v>1517.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>4443</v>
+        <v>4443.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1373</v>
+        <v>1373.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>49686</v>
+        <v>49686.0</v>
       </c>
       <c r="AP10" t="n">
-        <v>16104</v>
+        <v>16104.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>44202</v>
+        <v>44202.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>21726</v>
+        <v>21726.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>169</v>
+        <v>169.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
-        <v>1017</v>
+        <v>1017.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>753</v>
+        <v>753.0</v>
       </c>
       <c r="AW10" t="n">
-        <v>23673</v>
+        <v>23673.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>672</v>
+        <v>672.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>379</v>
+        <v>379.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>483</v>
+        <v>483.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>5147</v>
+        <v>5147.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>1633</v>
+        <v>1633.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>3904</v>
+        <v>3904.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>23078</v>
+        <v>23078.0</v>
       </c>
       <c r="BE10" t="n">
-        <v>7157</v>
+        <v>7157.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>4695</v>
+        <v>4695.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>704</v>
+        <v>704.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>3309</v>
+        <v>3309.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>678</v>
+        <v>678.0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>3450</v>
+        <v>3450.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>17584</v>
+        <v>17584.0</v>
       </c>
       <c r="BO10" t="n">
-        <v>4917</v>
+        <v>4917.0</v>
       </c>
       <c r="BP10" t="n">
-        <v>16254</v>
+        <v>16254.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>49508</v>
+        <v>49508.0</v>
       </c>
       <c r="C11" t="n">
-        <v>8444</v>
+        <v>8444.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7685</v>
+        <v>7685.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3589</v>
+        <v>3589.0</v>
       </c>
       <c r="F11" t="n">
-        <v>83325</v>
+        <v>83325.0</v>
       </c>
       <c r="G11" t="n">
-        <v>45945</v>
+        <v>45945.0</v>
       </c>
       <c r="H11" t="n">
-        <v>2269</v>
+        <v>2269.0</v>
       </c>
       <c r="I11" t="n">
-        <v>6277</v>
+        <v>6277.0</v>
       </c>
       <c r="J11" t="n">
-        <v>4458</v>
+        <v>4458.0</v>
       </c>
       <c r="K11" t="n">
-        <v>8319</v>
+        <v>8319.0</v>
       </c>
       <c r="L11" t="n">
-        <v>12312</v>
+        <v>12312.0</v>
       </c>
       <c r="M11" t="n">
-        <v>2496</v>
+        <v>2496.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2071</v>
+        <v>2071.0</v>
       </c>
       <c r="O11" t="n">
-        <v>5437</v>
+        <v>5437.0</v>
       </c>
       <c r="P11" t="n">
-        <v>1935</v>
+        <v>1935.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2065</v>
+        <v>2065.0</v>
       </c>
       <c r="R11" t="n">
-        <v>7734</v>
+        <v>7734.0</v>
       </c>
       <c r="S11" t="n">
-        <v>3410</v>
+        <v>3410.0</v>
       </c>
       <c r="T11" t="n">
-        <v>-15297</v>
+        <v>-15297.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1995</v>
+        <v>1995.0</v>
       </c>
       <c r="V11" t="n">
-        <v>6128</v>
+        <v>6128.0</v>
       </c>
       <c r="W11" t="n">
-        <v>3496</v>
+        <v>3496.0</v>
       </c>
       <c r="X11" t="n">
-        <v>2882</v>
+        <v>2882.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>12235</v>
+        <v>12235.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>6660</v>
+        <v>6660.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>10547</v>
+        <v>10547.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>10166</v>
+        <v>10166.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>2684</v>
+        <v>2684.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>11341</v>
+        <v>11341.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>5725</v>
+        <v>5725.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4634</v>
+        <v>4634.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>11291</v>
+        <v>11291.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>14666</v>
+        <v>14666.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>9840</v>
+        <v>9840.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3774</v>
+        <v>3774.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>13182</v>
+        <v>13182.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>5341</v>
+        <v>5341.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>59806</v>
+        <v>59806.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>13925</v>
+        <v>13925.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>82728</v>
+        <v>82728.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>25426</v>
+        <v>25426.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>163126</v>
+        <v>163126.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>35384</v>
+        <v>35384.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>580</v>
+        <v>580.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AU11" t="n">
-        <v>18473</v>
+        <v>18473.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>2866</v>
+        <v>2866.0</v>
       </c>
       <c r="AW11" t="n">
-        <v>19018</v>
+        <v>19018.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>3204</v>
+        <v>3204.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>5433</v>
+        <v>5433.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>40540</v>
+        <v>40540.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>19735</v>
+        <v>19735.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>135073</v>
+        <v>135073.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>302359</v>
+        <v>302359.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>27800</v>
+        <v>27800.0</v>
       </c>
       <c r="BE11" t="n">
-        <v>9774</v>
+        <v>9774.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>9647</v>
+        <v>9647.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>12410</v>
+        <v>12410.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>28010</v>
+        <v>28010.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>1800</v>
+        <v>1800.0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>46349</v>
+        <v>46349.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>6854</v>
+        <v>6854.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>285</v>
+        <v>285.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>3643</v>
+        <v>3643.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>9964</v>
+        <v>9964.0</v>
       </c>
       <c r="BO11" t="n">
-        <v>1681</v>
+        <v>1681.0</v>
       </c>
       <c r="BP11" t="n">
-        <v>4227</v>
+        <v>4227.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="n">
-        <v>859</v>
+        <v>859.0</v>
       </c>
       <c r="C12" t="n">
-        <v>343</v>
+        <v>343.0</v>
       </c>
       <c r="D12" t="n">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="E12" t="n">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="F12" t="n">
-        <v>827</v>
+        <v>827.0</v>
       </c>
       <c r="G12" t="n">
-        <v>447</v>
+        <v>447.0</v>
       </c>
       <c r="H12" t="n">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1118</v>
+        <v>1118.0</v>
       </c>
       <c r="J12" t="n">
-        <v>582</v>
+        <v>582.0</v>
       </c>
       <c r="K12" t="n">
-        <v>1290</v>
+        <v>1290.0</v>
       </c>
       <c r="L12" t="n">
-        <v>570</v>
+        <v>570.0</v>
       </c>
       <c r="M12" t="n">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="N12" t="n">
-        <v>346</v>
+        <v>346.0</v>
       </c>
       <c r="O12" t="n">
-        <v>474</v>
+        <v>474.0</v>
       </c>
       <c r="P12" t="n">
-        <v>310</v>
+        <v>310.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235</v>
+        <v>235.0</v>
       </c>
       <c r="R12" t="n">
-        <v>427</v>
+        <v>427.0</v>
       </c>
       <c r="S12" t="n">
-        <v>227</v>
+        <v>227.0</v>
       </c>
       <c r="T12" t="n">
-        <v>614</v>
+        <v>614.0</v>
       </c>
       <c r="U12" t="n">
-        <v>173</v>
+        <v>173.0</v>
       </c>
       <c r="V12" t="n">
-        <v>626</v>
+        <v>626.0</v>
       </c>
       <c r="W12" t="n">
-        <v>345</v>
+        <v>345.0</v>
       </c>
       <c r="X12" t="n">
-        <v>183</v>
+        <v>183.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>324</v>
+        <v>324.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>673</v>
+        <v>673.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>594</v>
+        <v>594.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>619</v>
+        <v>619.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>272</v>
+        <v>272.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>745</v>
+        <v>745.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>630</v>
+        <v>630.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>497</v>
+        <v>497.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>941</v>
+        <v>941.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1026</v>
+        <v>1026.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>751</v>
+        <v>751.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>296</v>
+        <v>296.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>422</v>
+        <v>422.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>245</v>
+        <v>245.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1182</v>
+        <v>1182.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>447</v>
+        <v>447.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>3053</v>
+        <v>3053.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>904</v>
+        <v>904.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5921</v>
+        <v>5921.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1761</v>
+        <v>1761.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>212</v>
+        <v>212.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>383</v>
+        <v>383.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1120</v>
+        <v>1120.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>193</v>
+        <v>193.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>780</v>
+        <v>780.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>216</v>
+        <v>216.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>876</v>
+        <v>876.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3551</v>
+        <v>3551.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>888</v>
+        <v>888.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>4516</v>
+        <v>4516.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>215</v>
+        <v>215.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1182</v>
+        <v>1182.0</v>
       </c>
       <c r="BE12" t="n">
-        <v>806</v>
+        <v>806.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>245</v>
+        <v>245.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>293</v>
+        <v>293.0</v>
       </c>
       <c r="BH12" t="n">
-        <v>1862</v>
+        <v>1862.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>512</v>
+        <v>512.0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="BL12" t="n">
-        <v>694</v>
+        <v>694.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>1020</v>
+        <v>1020.0</v>
       </c>
       <c r="BO12" t="n">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="BP12" t="n">
-        <v>554</v>
+        <v>554.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="n">
-        <v>-5116</v>
+        <v>-5116.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-89</v>
+        <v>-89.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-38</v>
+        <v>-38.0</v>
       </c>
       <c r="E13" t="n">
-        <v>-56</v>
+        <v>-56.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>-35</v>
+        <v>-35.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-60</v>
+        <v>-60.0</v>
       </c>
       <c r="J13" t="n">
-        <v>-95</v>
+        <v>-95.0</v>
       </c>
       <c r="K13" t="n">
-        <v>-108</v>
+        <v>-108.0</v>
       </c>
       <c r="L13" t="n">
-        <v>-61</v>
+        <v>-61.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-36</v>
+        <v>-36.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-23</v>
+        <v>-23.0</v>
       </c>
       <c r="R13" t="n">
-        <v>-84</v>
+        <v>-84.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>-28</v>
+        <v>-28.0</v>
       </c>
       <c r="U13" t="n">
-        <v>-149</v>
+        <v>-149.0</v>
       </c>
       <c r="V13" t="n">
-        <v>-17</v>
+        <v>-17.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-19</v>
+        <v>-19.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-106</v>
+        <v>-106.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-110</v>
+        <v>-110.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-42</v>
+        <v>-42.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-40</v>
+        <v>-40.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-76</v>
+        <v>-76.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-63</v>
+        <v>-63.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>-199</v>
+        <v>-199.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-207</v>
+        <v>-207.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-178</v>
+        <v>-178.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-137</v>
+        <v>-137.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-25</v>
+        <v>-25.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-387</v>
+        <v>-387.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-19</v>
+        <v>-19.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-409</v>
+        <v>-409.0</v>
       </c>
       <c r="AP13" t="n">
-        <v>-22</v>
+        <v>-22.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-318</v>
+        <v>-318.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1563</v>
+        <v>-1563.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-16</v>
+        <v>-16.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-47</v>
+        <v>-47.0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-60</v>
+        <v>-60.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-42</v>
+        <v>-42.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-18</v>
+        <v>-18.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-367</v>
+        <v>-367.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-138</v>
+        <v>-138.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>209241</v>
+        <v>209241.0</v>
       </c>
       <c r="C14" t="n">
-        <v>94213</v>
+        <v>94213.0</v>
       </c>
       <c r="D14" t="n">
-        <v>23693</v>
+        <v>23693.0</v>
       </c>
       <c r="E14" t="n">
-        <v>17265</v>
+        <v>17265.0</v>
       </c>
       <c r="F14" t="n">
-        <v>159027</v>
+        <v>159027.0</v>
       </c>
       <c r="G14" t="n">
-        <v>77063</v>
+        <v>77063.0</v>
       </c>
       <c r="H14" t="n">
-        <v>10533</v>
+        <v>10533.0</v>
       </c>
       <c r="I14" t="n">
-        <v>164010</v>
+        <v>164010.0</v>
       </c>
       <c r="J14" t="n">
-        <v>55818</v>
+        <v>55818.0</v>
       </c>
       <c r="K14" t="n">
-        <v>171317</v>
+        <v>171317.0</v>
       </c>
       <c r="L14" t="n">
-        <v>56908</v>
+        <v>56908.0</v>
       </c>
       <c r="M14" t="n">
-        <v>13087</v>
+        <v>13087.0</v>
       </c>
       <c r="N14" t="n">
-        <v>43173</v>
+        <v>43173.0</v>
       </c>
       <c r="O14" t="n">
-        <v>54296</v>
+        <v>54296.0</v>
       </c>
       <c r="P14" t="n">
-        <v>32619</v>
+        <v>32619.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>22210</v>
+        <v>22210.0</v>
       </c>
       <c r="R14" t="n">
-        <v>58510</v>
+        <v>58510.0</v>
       </c>
       <c r="S14" t="n">
-        <v>19091</v>
+        <v>19091.0</v>
       </c>
       <c r="T14" t="n">
-        <v>253576</v>
+        <v>253576.0</v>
       </c>
       <c r="U14" t="n">
-        <v>23588</v>
+        <v>23588.0</v>
       </c>
       <c r="V14" t="n">
-        <v>105437</v>
+        <v>105437.0</v>
       </c>
       <c r="W14" t="n">
-        <v>50352</v>
+        <v>50352.0</v>
       </c>
       <c r="X14" t="n">
-        <v>27643</v>
+        <v>27643.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>42790</v>
+        <v>42790.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>79842</v>
+        <v>79842.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>72361</v>
+        <v>72361.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>96034</v>
+        <v>96034.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>40031</v>
+        <v>40031.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>80782</v>
+        <v>80782.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>68505</v>
+        <v>68505.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>62609</v>
+        <v>62609.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>107999</v>
+        <v>107999.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>164711</v>
+        <v>164711.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>88005</v>
+        <v>88005.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>37397</v>
+        <v>37397.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>55725</v>
+        <v>55725.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>45446</v>
+        <v>45446.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>164366</v>
+        <v>164366.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>46839</v>
+        <v>46839.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>507895</v>
+        <v>507895.0</v>
       </c>
       <c r="AP14" t="n">
-        <v>122008</v>
+        <v>122008.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>622903</v>
+        <v>622903.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>236960</v>
+        <v>236960.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>12157</v>
+        <v>12157.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>29117</v>
+        <v>29117.0</v>
       </c>
       <c r="AU14" t="n">
-        <v>81006</v>
+        <v>81006.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>17261</v>
+        <v>17261.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>151663</v>
+        <v>151663.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>22566</v>
+        <v>22566.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>31112</v>
+        <v>31112.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>143249</v>
+        <v>143249.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>80788</v>
+        <v>80788.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>398032</v>
+        <v>398032.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>340359</v>
+        <v>340359.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>124627</v>
+        <v>124627.0</v>
       </c>
       <c r="BE14" t="n">
-        <v>55932</v>
+        <v>55932.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>66427</v>
+        <v>66427.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>31358</v>
+        <v>31358.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>143082</v>
+        <v>143082.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>24822</v>
+        <v>24822.0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>522385</v>
+        <v>522385.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>193081</v>
+        <v>193081.0</v>
       </c>
       <c r="BL14" t="n">
-        <v>63272</v>
+        <v>63272.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>114794</v>
+        <v>114794.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>125360</v>
+        <v>125360.0</v>
       </c>
       <c r="BO14" t="n">
-        <v>24702</v>
+        <v>24702.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>110543</v>
+        <v>110543.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>44434</v>
+        <v>44434.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="n">
-        <v>6574644</v>
+        <v>6574644.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6828049</v>
+        <v>6828049.0</v>
       </c>
       <c r="D15" t="n">
-        <v>975753</v>
+        <v>975753.0</v>
       </c>
       <c r="E15" t="n">
-        <v>147651</v>
+        <v>147651.0</v>
       </c>
       <c r="F15" t="n">
-        <v>67183</v>
+        <v>67183.0</v>
       </c>
       <c r="G15" t="n">
-        <v>44473</v>
+        <v>44473.0</v>
       </c>
       <c r="H15" t="n">
-        <v>33429</v>
+        <v>33429.0</v>
       </c>
       <c r="I15" t="n">
-        <v>654324</v>
+        <v>654324.0</v>
       </c>
       <c r="J15" t="n">
-        <v>254776</v>
+        <v>254776.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1165242</v>
+        <v>1165242.0</v>
       </c>
       <c r="L15" t="n">
-        <v>161280</v>
+        <v>161280.0</v>
       </c>
       <c r="M15" t="n">
-        <v>19340</v>
+        <v>19340.0</v>
       </c>
       <c r="N15" t="n">
-        <v>608183</v>
+        <v>608183.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1749759</v>
+        <v>1749759.0</v>
       </c>
       <c r="P15" t="n">
-        <v>577823</v>
+        <v>577823.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>458959</v>
+        <v>458959.0</v>
       </c>
       <c r="R15" t="n">
-        <v>203335</v>
+        <v>203335.0</v>
       </c>
       <c r="S15" t="n">
-        <v>208088</v>
+        <v>208088.0</v>
       </c>
       <c r="T15" t="n">
-        <v>24026</v>
+        <v>24026.0</v>
       </c>
       <c r="U15" t="n">
-        <v>81046</v>
+        <v>81046.0</v>
       </c>
       <c r="V15" t="n">
-        <v>97977</v>
+        <v>97977.0</v>
       </c>
       <c r="W15" t="n">
-        <v>97111</v>
+        <v>97111.0</v>
       </c>
       <c r="X15" t="n">
-        <v>177960</v>
+        <v>177960.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>102263</v>
+        <v>102263.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>466290</v>
+        <v>466290.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>658472</v>
+        <v>658472.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>137795</v>
+        <v>137795.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>118843</v>
+        <v>118843.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>788453</v>
+        <v>788453.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>182672</v>
+        <v>182672.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>261165</v>
+        <v>261165.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>471825</v>
+        <v>471825.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>198760</v>
+        <v>198760.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>348283</v>
+        <v>348283.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>111500</v>
+        <v>111500.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>863869</v>
+        <v>863869.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>521786</v>
+        <v>521786.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>146361</v>
+        <v>146361.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>579412</v>
+        <v>579412.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>8099182</v>
+        <v>8099182.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2828508</v>
+        <v>2828508.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15257223</v>
+        <v>1.5257223E7</v>
       </c>
       <c r="AR15" t="n">
-        <v>3469904</v>
+        <v>3469904.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>62911</v>
+        <v>62911.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>68374</v>
+        <v>68374.0</v>
       </c>
       <c r="AU15" t="n">
-        <v>775684</v>
+        <v>775684.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>391430</v>
+        <v>391430.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>4545355</v>
+        <v>4545355.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>175590</v>
+        <v>175590.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>168110</v>
+        <v>168110.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>225183</v>
+        <v>225183.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>665694</v>
+        <v>665694.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1114181</v>
+        <v>1114181.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>345303</v>
+        <v>345303.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1584704</v>
+        <v>1584704.0</v>
       </c>
       <c r="BE15" t="n">
-        <v>570506</v>
+        <v>570506.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>431109</v>
+        <v>431109.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>307250</v>
+        <v>307250.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>3785349</v>
+        <v>3785349.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>790479</v>
+        <v>790479.0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5252371</v>
+        <v>5252371.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>3863066</v>
+        <v>3863066.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>2111537</v>
+        <v>2111537.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>1585717</v>
+        <v>1585717.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>2349784</v>
+        <v>2349784.0</v>
       </c>
       <c r="BO15" t="n">
-        <v>974230</v>
+        <v>974230.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>3751438</v>
+        <v>3751438.0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6841825</v>
+        <v>6841825.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>